--- a/pali-class/vocab/vocab-class23.xlsx
+++ b/pali-class/vocab/vocab-class23.xlsx
@@ -49,42 +49,42 @@
     <t>amu</t>
   </si>
   <si>
+    <t>passanta 1</t>
+  </si>
+  <si>
+    <t>jānanta</t>
+  </si>
+  <si>
+    <t>samanupassanta</t>
+  </si>
+  <si>
+    <t>tiṭṭhanta 1</t>
+  </si>
+  <si>
+    <t>anussaranta</t>
+  </si>
+  <si>
+    <t>gacchanta</t>
+  </si>
+  <si>
+    <t>viharanta</t>
+  </si>
+  <si>
+    <t>tiṭṭhanta 2</t>
+  </si>
+  <si>
+    <t>ajānanta</t>
+  </si>
+  <si>
     <t>anāpucchanta</t>
   </si>
   <si>
-    <t>passanta 1</t>
-  </si>
-  <si>
-    <t>jānanta</t>
-  </si>
-  <si>
-    <t>samanupassanta</t>
-  </si>
-  <si>
-    <t>tiṭṭhanta 1</t>
-  </si>
-  <si>
-    <t>anussaranta</t>
-  </si>
-  <si>
-    <t>gacchanta</t>
-  </si>
-  <si>
-    <t>viharanta</t>
-  </si>
-  <si>
     <t>apassanta</t>
   </si>
   <si>
-    <t>ajānanta</t>
-  </si>
-  <si>
     <t>ujjhāyanta</t>
   </si>
   <si>
-    <t>tiṭṭhanta 2</t>
-  </si>
-  <si>
     <t>ekacca 1</t>
   </si>
   <si>
@@ -94,30 +94,30 @@
     <t>ima 1.1</t>
   </si>
   <si>
+    <t>cavamāna</t>
+  </si>
+  <si>
+    <t>caramāna</t>
+  </si>
+  <si>
+    <t>sampassamāna</t>
+  </si>
+  <si>
+    <t>uppajjamāna</t>
+  </si>
+  <si>
+    <t>ākaṅkhamāna</t>
+  </si>
+  <si>
+    <t>bhāsamāna</t>
+  </si>
+  <si>
     <t>upapajjamāna</t>
   </si>
   <si>
-    <t>cavamāna</t>
-  </si>
-  <si>
-    <t>caramāna</t>
-  </si>
-  <si>
     <t>paccavekkhamāna</t>
   </si>
   <si>
-    <t>sampassamāna</t>
-  </si>
-  <si>
-    <t>uppajjamāna</t>
-  </si>
-  <si>
-    <t>ākaṅkhamāna</t>
-  </si>
-  <si>
-    <t>bhāsamāna</t>
-  </si>
-  <si>
     <t>methuna 1</t>
   </si>
   <si>
@@ -172,12 +172,12 @@
     <t>puratthima</t>
   </si>
   <si>
+    <t>paṇīta 2</t>
+  </si>
+  <si>
     <t>hīna 1</t>
   </si>
   <si>
-    <t>paṇīta 2</t>
-  </si>
-  <si>
     <t>anicca 1</t>
   </si>
   <si>
@@ -319,150 +319,150 @@
     <t>sukka 1</t>
   </si>
   <si>
+    <t>anuttara</t>
+  </si>
+  <si>
+    <t>appamāṇa</t>
+  </si>
+  <si>
+    <t>maha 2</t>
+  </si>
+  <si>
+    <t>vipula 1</t>
+  </si>
+  <si>
+    <t>anavajja 1</t>
+  </si>
+  <si>
+    <t>subhāsita 1</t>
+  </si>
+  <si>
+    <t>sāraṇīya 1.1</t>
+  </si>
+  <si>
+    <t>pubba 1.1</t>
+  </si>
+  <si>
+    <t>sampajāna 1</t>
+  </si>
+  <si>
+    <t>appiya 1</t>
+  </si>
+  <si>
+    <t>piya 2</t>
+  </si>
+  <si>
+    <t>sukha 1</t>
+  </si>
+  <si>
+    <t>matta 2</t>
+  </si>
+  <si>
+    <t>animitta 1</t>
+  </si>
+  <si>
+    <t>kusīta</t>
+  </si>
+  <si>
+    <t>bhūta 1</t>
+  </si>
+  <si>
+    <t>oḷārika 2</t>
+  </si>
+  <si>
+    <t>iṭṭha 1</t>
+  </si>
+  <si>
+    <t>kanta 1.1</t>
+  </si>
+  <si>
+    <t>akhaṇḍa</t>
+  </si>
+  <si>
+    <t>savicāra</t>
+  </si>
+  <si>
+    <t>savitakka</t>
+  </si>
+  <si>
+    <t>akusala 1</t>
+  </si>
+  <si>
+    <t>sagga 1.1</t>
+  </si>
+  <si>
+    <t>uttama 1</t>
+  </si>
+  <si>
+    <t>abbhuta 1</t>
+  </si>
+  <si>
+    <t>acchariya 1</t>
+  </si>
+  <si>
+    <t>sassata</t>
+  </si>
+  <si>
+    <t>dhuva 1</t>
+  </si>
+  <si>
+    <t>uḷāra 1</t>
+  </si>
+  <si>
+    <t>abhikkanta 3</t>
+  </si>
+  <si>
+    <t>matta 1</t>
+  </si>
+  <si>
+    <t>yāvataka</t>
+  </si>
+  <si>
+    <t>patirūpa</t>
+  </si>
+  <si>
+    <t>jiṇṇa 1</t>
+  </si>
+  <si>
+    <t>nava 1</t>
+  </si>
+  <si>
+    <t>appa 1</t>
+  </si>
+  <si>
+    <t>khama 2</t>
+  </si>
+  <si>
+    <t>svākkhāta</t>
+  </si>
+  <si>
+    <t>sārambha 2.1</t>
+  </si>
+  <si>
+    <t>kaṇha 1</t>
+  </si>
+  <si>
+    <t>dussīla 1</t>
+  </si>
+  <si>
+    <t>ariya 1</t>
+  </si>
+  <si>
+    <t>abhikkanta 1</t>
+  </si>
+  <si>
+    <t>dullabha 1</t>
+  </si>
+  <si>
+    <t>panta 2</t>
+  </si>
+  <si>
     <t>yutta 3</t>
   </si>
   <si>
-    <t>anuttara</t>
-  </si>
-  <si>
-    <t>maha 2</t>
-  </si>
-  <si>
-    <t>vipula 1</t>
-  </si>
-  <si>
-    <t>appamāṇa</t>
-  </si>
-  <si>
-    <t>anavajja 1</t>
-  </si>
-  <si>
-    <t>subhāsita 1</t>
-  </si>
-  <si>
-    <t>sāraṇīya 1.1</t>
-  </si>
-  <si>
-    <t>pubba 1.1</t>
-  </si>
-  <si>
-    <t>sampajāna 1</t>
-  </si>
-  <si>
-    <t>appiya 1</t>
-  </si>
-  <si>
-    <t>piya 2</t>
-  </si>
-  <si>
-    <t>abhikkanta 1</t>
-  </si>
-  <si>
-    <t>sukha 1</t>
-  </si>
-  <si>
-    <t>matta 2</t>
-  </si>
-  <si>
-    <t>animitta 1</t>
-  </si>
-  <si>
-    <t>kusīta</t>
-  </si>
-  <si>
-    <t>bhūta 1</t>
-  </si>
-  <si>
-    <t>oḷārika 2</t>
-  </si>
-  <si>
-    <t>akhaṇḍa</t>
-  </si>
-  <si>
-    <t>savicāra</t>
-  </si>
-  <si>
-    <t>savitakka</t>
-  </si>
-  <si>
-    <t>akusala 1</t>
-  </si>
-  <si>
-    <t>sagga 1.1</t>
-  </si>
-  <si>
-    <t>uttama 1</t>
-  </si>
-  <si>
-    <t>abbhuta 1</t>
-  </si>
-  <si>
-    <t>acchariya 1</t>
-  </si>
-  <si>
-    <t>dullabha 1</t>
-  </si>
-  <si>
-    <t>sassata</t>
-  </si>
-  <si>
-    <t>dhuva 1</t>
-  </si>
-  <si>
-    <t>uḷāra 1</t>
-  </si>
-  <si>
-    <t>abhikkanta 3</t>
-  </si>
-  <si>
-    <t>matta 1</t>
-  </si>
-  <si>
-    <t>panta 2</t>
-  </si>
-  <si>
-    <t>yāvataka</t>
-  </si>
-  <si>
-    <t>patirūpa</t>
-  </si>
-  <si>
-    <t>jiṇṇa 1</t>
-  </si>
-  <si>
-    <t>nava 1</t>
-  </si>
-  <si>
-    <t>appa 1</t>
-  </si>
-  <si>
-    <t>khama 2</t>
-  </si>
-  <si>
-    <t>svākkhāta</t>
-  </si>
-  <si>
     <t>sāra 1</t>
   </si>
   <si>
-    <t>sārambha 2.1</t>
-  </si>
-  <si>
-    <t>kaṇha 1</t>
-  </si>
-  <si>
-    <t>dussīla 1</t>
-  </si>
-  <si>
-    <t>ariya 1</t>
-  </si>
-  <si>
-    <t>iṭṭha 1</t>
-  </si>
-  <si>
-    <t>kanta 1.1</t>
-  </si>
-  <si>
     <t>sukhuma 1</t>
   </si>
   <si>
@@ -598,12 +598,12 @@
     <t>āraddha 1.1</t>
   </si>
   <si>
+    <t>ettaka</t>
+  </si>
+  <si>
     <t>pāpaka 1.1</t>
   </si>
   <si>
-    <t>ettaka</t>
-  </si>
-  <si>
     <t>mahanta 1</t>
   </si>
   <si>
@@ -715,66 +715,66 @@
     <t>pavuccati</t>
   </si>
   <si>
+    <t>vuccati</t>
+  </si>
+  <si>
+    <t>pahīyati 1.1</t>
+  </si>
+  <si>
+    <t>nirujjhati</t>
+  </si>
+  <si>
+    <t>ñāyati 1</t>
+  </si>
+  <si>
+    <t>jāyati 2</t>
+  </si>
+  <si>
+    <t>vimuccati</t>
+  </si>
+  <si>
+    <t>vijjati 1</t>
+  </si>
+  <si>
+    <t>parinibbāyati 1</t>
+  </si>
+  <si>
+    <t>muccati 1.1</t>
+  </si>
+  <si>
+    <t>paññāyati 1</t>
+  </si>
+  <si>
+    <t>samādhiyati</t>
+  </si>
+  <si>
+    <t>virajjati 1</t>
+  </si>
+  <si>
+    <t>parimuccati</t>
+  </si>
+  <si>
+    <t>haññati 2</t>
+  </si>
+  <si>
+    <t>dissati 2</t>
+  </si>
+  <si>
+    <t>khajjati 1</t>
+  </si>
+  <si>
+    <t>dissati 1</t>
+  </si>
+  <si>
     <t>chijjati 1</t>
   </si>
   <si>
-    <t>vuccati</t>
-  </si>
-  <si>
-    <t>pahīyati 1.1</t>
-  </si>
-  <si>
-    <t>nirujjhati</t>
-  </si>
-  <si>
-    <t>ñāyati 1</t>
-  </si>
-  <si>
-    <t>jāyati 2</t>
-  </si>
-  <si>
-    <t>vimuccati</t>
-  </si>
-  <si>
-    <t>vijjati 1</t>
-  </si>
-  <si>
     <t>paritassati</t>
   </si>
   <si>
-    <t>parinibbāyati 1</t>
-  </si>
-  <si>
-    <t>muccati 1.1</t>
-  </si>
-  <si>
-    <t>paññāyati 1</t>
-  </si>
-  <si>
-    <t>samādhiyati</t>
-  </si>
-  <si>
-    <t>virajjati 1</t>
-  </si>
-  <si>
-    <t>parimuccati</t>
-  </si>
-  <si>
     <t>vinassati</t>
   </si>
   <si>
-    <t>haññati 2</t>
-  </si>
-  <si>
-    <t>dissati 2</t>
-  </si>
-  <si>
-    <t>khajjati 1</t>
-  </si>
-  <si>
-    <t>dissati 1</t>
-  </si>
-  <si>
     <t>pana</t>
   </si>
   <si>
@@ -811,12 +811,15 @@
     <t>hi 1</t>
   </si>
   <si>
+    <t>ce 1</t>
+  </si>
+  <si>
+    <t>santike 1</t>
+  </si>
+  <si>
     <t>dūre 2</t>
   </si>
   <si>
-    <t>santike 1</t>
-  </si>
-  <si>
     <t>bahiddhā 1</t>
   </si>
   <si>
@@ -865,6 +868,9 @@
     <t>vata 1.1</t>
   </si>
   <si>
+    <t>sukhaṃ</t>
+  </si>
+  <si>
     <t>ajjhattaṃ</t>
   </si>
   <si>
@@ -907,12 +913,6 @@
     <t>aññathā 1</t>
   </si>
   <si>
-    <t>ce 1</t>
-  </si>
-  <si>
-    <t>sukhaṃ</t>
-  </si>
-  <si>
     <t>yoniso</t>
   </si>
   <si>
@@ -949,15 +949,15 @@
     <t>kāretabba 1</t>
   </si>
   <si>
+    <t>bhāvetabba</t>
+  </si>
+  <si>
+    <t>sevitabba 2</t>
+  </si>
+  <si>
     <t>daṭṭhabba 1</t>
   </si>
   <si>
-    <t>bhāvetabba</t>
-  </si>
-  <si>
-    <t>sevitabba 2</t>
-  </si>
-  <si>
     <t>pahātabba</t>
   </si>
   <si>
@@ -1003,66 +1003,66 @@
     <t>deseti 1</t>
   </si>
   <si>
+    <t>sameti 1.1</t>
+  </si>
+  <si>
+    <t>māneti</t>
+  </si>
+  <si>
+    <t>upaṭṭhāpeti 2</t>
+  </si>
+  <si>
+    <t>paññāpeti 3</t>
+  </si>
+  <si>
+    <t>paripūreti 1</t>
+  </si>
+  <si>
+    <t>parisandeti</t>
+  </si>
+  <si>
+    <t>abhininnāmeti 1</t>
+  </si>
+  <si>
+    <t>pakāseti 2</t>
+  </si>
+  <si>
+    <t>parisodheti</t>
+  </si>
+  <si>
+    <t>pasāreti</t>
+  </si>
+  <si>
+    <t>atikkāmeti 2</t>
+  </si>
+  <si>
+    <t>kāreti 4</t>
+  </si>
+  <si>
+    <t>kappeti 1</t>
+  </si>
+  <si>
+    <t>paññapeti 1</t>
+  </si>
+  <si>
+    <t>janeti</t>
+  </si>
+  <si>
+    <t>bhāveti</t>
+  </si>
+  <si>
+    <t>sameti 2.2</t>
+  </si>
+  <si>
+    <t>abhisandeti</t>
+  </si>
+  <si>
+    <t>kāreti 2</t>
+  </si>
+  <si>
     <t>pabbājeti 1</t>
   </si>
   <si>
-    <t>sameti 1.1</t>
-  </si>
-  <si>
-    <t>māneti</t>
-  </si>
-  <si>
-    <t>upaṭṭhāpeti 2</t>
-  </si>
-  <si>
-    <t>kāreti 2</t>
-  </si>
-  <si>
-    <t>paññāpeti 3</t>
-  </si>
-  <si>
-    <t>paripūreti 1</t>
-  </si>
-  <si>
-    <t>parisandeti</t>
-  </si>
-  <si>
-    <t>abhisandeti</t>
-  </si>
-  <si>
-    <t>abhininnāmeti 1</t>
-  </si>
-  <si>
-    <t>pakāseti 2</t>
-  </si>
-  <si>
-    <t>parisodheti</t>
-  </si>
-  <si>
-    <t>pasāreti</t>
-  </si>
-  <si>
-    <t>atikkāmeti 2</t>
-  </si>
-  <si>
-    <t>kāreti 4</t>
-  </si>
-  <si>
-    <t>kappeti 1</t>
-  </si>
-  <si>
-    <t>bhāveti</t>
-  </si>
-  <si>
-    <t>paññapeti 1</t>
-  </si>
-  <si>
-    <t>janeti</t>
-  </si>
-  <si>
-    <t>sameti 2.2</t>
-  </si>
-  <si>
     <t>pamādi</t>
   </si>
   <si>
@@ -1084,15 +1084,15 @@
     <t>tejas 1</t>
   </si>
   <si>
+    <t>āpas</t>
+  </si>
+  <si>
+    <t>cetas</t>
+  </si>
+  <si>
     <t>vāyas</t>
   </si>
   <si>
-    <t>āpas</t>
-  </si>
-  <si>
-    <t>cetas</t>
-  </si>
-  <si>
     <t>rāja 1</t>
   </si>
   <si>
@@ -1102,594 +1102,594 @@
     <t>dhamma 1.03</t>
   </si>
   <si>
+    <t>bhava 3</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>ādīnava 1</t>
+  </si>
+  <si>
+    <t>assāda</t>
+  </si>
+  <si>
+    <t>attha 1.3</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.01</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>nigaṇṭha 1</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>māsa 1.1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
+    <t>vaṇṇa 03</t>
+  </si>
+  <si>
+    <t>accaya 3</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>vāda 4</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>sunakkhatta 2</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>attha 3.1</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>piṇḍa 2</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>deva 4</t>
+  </si>
+  <si>
+    <t>pabbata 2</t>
+  </si>
+  <si>
+    <t>khandha 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>sūriya 1</t>
+  </si>
+  <si>
+    <t>patha 1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>dhīra 2.2</t>
+  </si>
+  <si>
+    <t>deva 3</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>anta 2</t>
+  </si>
+  <si>
+    <t>byāpāda</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>kodha 1</t>
+  </si>
+  <si>
     <t>pariyāya 4</t>
   </si>
   <si>
-    <t>bhava 3</t>
-  </si>
-  <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>ādīnava 1</t>
-  </si>
-  <si>
-    <t>assāda</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>attha 1.3</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.01</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>nigaṇṭha 1</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>māsa 1.1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>vaṇṇa 03</t>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>moghapurisa</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>kāla 1.1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>soṇa 3</t>
+  </si>
+  <si>
+    <t>dhamma 1.07</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>yoga 1</t>
+  </si>
+  <si>
+    <t>nāga 2</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>sāmika 1</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>pāṇa 3</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>vihāra 3</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>anta 3</t>
+  </si>
+  <si>
+    <t>kaccāna</t>
+  </si>
+  <si>
+    <t>kopa 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>bhāva 1</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>paṭilābha</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>āhāra 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>pāsāda</t>
+  </si>
+  <si>
+    <t>kumāra 2</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>putta 2</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>mitta 1</t>
+  </si>
+  <si>
+    <t>rājañña</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>amanasikāra 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>udapāna</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.09</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>padesa 1</t>
+  </si>
+  <si>
+    <t>passāva</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>majjha 2</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>sakka 3</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
   </si>
   <si>
     <t>sara 2.1</t>
   </si>
   <si>
-    <t>accaya 3</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>vāda 4</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>sunakkhatta 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>attha 3.1</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>piṇḍa 2</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>deva 4</t>
-  </si>
-  <si>
-    <t>pabbata 2</t>
-  </si>
-  <si>
-    <t>khandha 2</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>sūriya 1</t>
-  </si>
-  <si>
-    <t>patha 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>majjha 2</t>
-  </si>
-  <si>
-    <t>anta 3</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>dhīra 2.2</t>
-  </si>
-  <si>
-    <t>deva 3</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>anta 2</t>
-  </si>
-  <si>
-    <t>byāpāda</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>kodha 1</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>moghapurisa</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>udapāna</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>kāla 1.1</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>passāva</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>soṇa 3</t>
-  </si>
-  <si>
-    <t>dhamma 1.07</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>yoga 1</t>
-  </si>
-  <si>
-    <t>nāga 2</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>padesa 1</t>
-  </si>
-  <si>
-    <t>sāmika 1</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>pāṇa 3</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>vihāra 3</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
-  </si>
-  <si>
-    <t>sakka 3</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>amanasikāra 1</t>
-  </si>
-  <si>
-    <t>kaccāna</t>
-  </si>
-  <si>
-    <t>kopa 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>bhāva 1</t>
-  </si>
-  <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>āhāra 1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>pāsāda</t>
-  </si>
-  <si>
-    <t>kumāra 2</t>
-  </si>
-  <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>putta 2</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
-    <t>mitta 1</t>
-  </si>
-  <si>
-    <t>rājañña</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>cora</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>paṭilābha</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
-    <t>dhamma 1.09</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
     <t>sīha 1</t>
   </si>
   <si>
@@ -1732,204 +1732,204 @@
     <t>bandhati 1</t>
   </si>
   <si>
+    <t>pasavati 2</t>
+  </si>
+  <si>
+    <t>socati</t>
+  </si>
+  <si>
+    <t>paṭinissajjati</t>
+  </si>
+  <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>pabbajati</t>
+  </si>
+  <si>
+    <t>samudācarati 2.1</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>pakkamati 1</t>
+  </si>
+  <si>
+    <t>ārabhati 1.1</t>
+  </si>
+  <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>gaccha 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>samanupassati 2</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>ākaṅkhati</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
+    <t>pakkhandati 1</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>phusati 1</t>
+  </si>
+  <si>
+    <t>uddharati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 2</t>
+  </si>
+  <si>
+    <t>passati 3</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>paṭisañcikkhati</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
+  </si>
+  <si>
+    <t>vattati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>ajjhāvasati 1</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
+    <t>payirupāsati 1</t>
+  </si>
+  <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>kaṅkhati 1</t>
+  </si>
+  <si>
+    <t>vasati</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 1</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
     <t>passa 2.1</t>
   </si>
   <si>
-    <t>socati</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>paṭinissajjati</t>
-  </si>
-  <si>
-    <t>payirupāsati 1</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>pabbajati</t>
-  </si>
-  <si>
-    <t>samudācarati 2.1</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>pakkamati 1</t>
-  </si>
-  <si>
-    <t>ārabhati 1.1</t>
-  </si>
-  <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>rakkhati 2</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>samanupassati 2</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>ākaṅkhati</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>pakkhandati 1</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>phusati 1</t>
-  </si>
-  <si>
-    <t>uddharati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 2</t>
-  </si>
-  <si>
-    <t>passati 3</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>paṭisañcikkhati</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
     <t>pavaḍḍhati 1</t>
   </si>
   <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>pasavati 2</t>
-  </si>
-  <si>
-    <t>vattati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
-    <t>ajjhāvasati 1</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>kaṅkhati 1</t>
-  </si>
-  <si>
-    <t>vasati</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>gaccha 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
     <t>pūjeti 1</t>
   </si>
   <si>
@@ -1948,12 +1948,12 @@
     <t>vedeti 1</t>
   </si>
   <si>
+    <t>seti 2</t>
+  </si>
+  <si>
     <t>dhāreti 3</t>
   </si>
   <si>
-    <t>seti 2</t>
-  </si>
-  <si>
     <t>deti 1</t>
   </si>
   <si>
@@ -1978,42 +1978,42 @@
     <t>suṇātu</t>
   </si>
   <si>
+    <t>pāpuṇāti 1</t>
+  </si>
+  <si>
     <t>pajānāti</t>
   </si>
   <si>
+    <t>paṭibhāti</t>
+  </si>
+  <si>
+    <t>paṭijānāti 3</t>
+  </si>
+  <si>
+    <t>dadāti</t>
+  </si>
+  <si>
+    <t>vijānāti 1</t>
+  </si>
+  <si>
+    <t>ājānāti 1</t>
+  </si>
+  <si>
+    <t>sañjānāti</t>
+  </si>
+  <si>
+    <t>paggaṇhāti 2</t>
+  </si>
+  <si>
+    <t>saṇṭhāti</t>
+  </si>
+  <si>
+    <t>jānāti 1</t>
+  </si>
+  <si>
     <t>paṭiggaṇhāti 1</t>
   </si>
   <si>
-    <t>paṭibhāti</t>
-  </si>
-  <si>
-    <t>paṭijānāti 3</t>
-  </si>
-  <si>
-    <t>dadāti</t>
-  </si>
-  <si>
-    <t>vijānāti 1</t>
-  </si>
-  <si>
-    <t>ājānāti 1</t>
-  </si>
-  <si>
-    <t>sañjānāti</t>
-  </si>
-  <si>
-    <t>paggaṇhāti 2</t>
-  </si>
-  <si>
-    <t>saṇṭhāti</t>
-  </si>
-  <si>
-    <t>jānāti 1</t>
-  </si>
-  <si>
-    <t>pāpuṇāti 1</t>
-  </si>
-  <si>
     <t>vāṇija</t>
   </si>
   <si>
@@ -2029,6 +2029,9 @@
     <t>ādiyati 1</t>
   </si>
   <si>
+    <t>āpajjati 5</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
@@ -2038,36 +2041,33 @@
     <t>maññati 1</t>
   </si>
   <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>muñcati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>jhāyati 2</t>
+  </si>
+  <si>
+    <t>chindati 1</t>
+  </si>
+  <si>
     <t>upādiyati</t>
   </si>
   <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>muñcati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>jhāyati 2</t>
-  </si>
-  <si>
-    <t>chindati 1</t>
-  </si>
-  <si>
-    <t>āpajjati 5</t>
-  </si>
-  <si>
     <t>atthi 2</t>
   </si>
   <si>
@@ -2125,18 +2125,18 @@
     <t>pakkāmi 1</t>
   </si>
   <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>nisīdi</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
     <t>sammodi</t>
   </si>
   <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>nisīdi</t>
-  </si>
-  <si>
     <t>muni 1</t>
   </si>
   <si>
@@ -2155,6 +2155,9 @@
     <t>sārathi 1</t>
   </si>
   <si>
+    <t>ñāti</t>
+  </si>
+  <si>
     <t>gahapati</t>
   </si>
   <si>
@@ -2176,9 +2179,6 @@
     <t>byādhi</t>
   </si>
   <si>
-    <t>ñāti</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -2203,15 +2203,15 @@
     <t>abhāsi 1</t>
   </si>
   <si>
+    <t>byākāsi 1</t>
+  </si>
+  <si>
+    <t>adāsi</t>
+  </si>
+  <si>
     <t>aṭṭhāsi 1</t>
   </si>
   <si>
-    <t>byākāsi 1</t>
-  </si>
-  <si>
-    <t>adāsi</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -2257,6 +2257,9 @@
     <t>no 2.3</t>
   </si>
   <si>
+    <t>me 3</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
@@ -2278,9 +2281,6 @@
     <t>maṃ 1</t>
   </si>
   <si>
-    <t>me 3</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -2347,6 +2347,9 @@
     <t>taṃ 2.1</t>
   </si>
   <si>
+    <t>tayā 1</t>
+  </si>
+  <si>
     <t>tumhākaṃ 2</t>
   </si>
   <si>
@@ -2356,24 +2359,21 @@
     <t>tumhe 1</t>
   </si>
   <si>
+    <t>vo 1.4</t>
+  </si>
+  <si>
     <t>tvaṃ 1</t>
   </si>
   <si>
+    <t>te 2.3</t>
+  </si>
+  <si>
+    <t>tuvaṃ 1</t>
+  </si>
+  <si>
     <t>te 2.4</t>
   </si>
   <si>
-    <t>te 2.3</t>
-  </si>
-  <si>
-    <t>tuvaṃ 1</t>
-  </si>
-  <si>
-    <t>tayā 1</t>
-  </si>
-  <si>
-    <t>vo 1.4</t>
-  </si>
-  <si>
     <t>nābhijānāti 1</t>
   </si>
   <si>
@@ -2482,27 +2482,30 @@
     <t>akkhātar</t>
   </si>
   <si>
+    <t>bhāsitar</t>
+  </si>
+  <si>
     <t>dātar 1</t>
   </si>
   <si>
-    <t>bhāsitar</t>
-  </si>
-  <si>
     <t>pitar</t>
   </si>
   <si>
+    <t>mātāpitar</t>
+  </si>
+  <si>
     <t>bhātar</t>
   </si>
   <si>
-    <t>mātāpitar</t>
-  </si>
-  <si>
     <t>paricarati 3</t>
   </si>
   <si>
     <t>kālena</t>
   </si>
   <si>
+    <t>pubbe 1</t>
+  </si>
+  <si>
     <t>āyatiṃ</t>
   </si>
   <si>
@@ -2518,30 +2521,30 @@
     <t>ca 1</t>
   </si>
   <si>
+    <t>kadā</t>
+  </si>
+  <si>
+    <t>pacchā 1</t>
+  </si>
+  <si>
+    <t>pure 2</t>
+  </si>
+  <si>
+    <t>dāni</t>
+  </si>
+  <si>
+    <t>ajja</t>
+  </si>
+  <si>
     <t>sabbadā</t>
   </si>
   <si>
-    <t>kadā</t>
-  </si>
-  <si>
-    <t>pacchā 1</t>
-  </si>
-  <si>
-    <t>pure 2</t>
-  </si>
-  <si>
-    <t>dāni</t>
-  </si>
-  <si>
-    <t>ajja</t>
-  </si>
-  <si>
-    <t>pubbe 1</t>
-  </si>
-  <si>
     <t>garu 5</t>
   </si>
   <si>
+    <t>phāsu 2</t>
+  </si>
+  <si>
     <t>garu 4</t>
   </si>
   <si>
@@ -2551,9 +2554,6 @@
     <t>maccu</t>
   </si>
   <si>
-    <t>phāsu 2</t>
-  </si>
-  <si>
     <t>khemī</t>
   </si>
   <si>
@@ -2572,12 +2572,12 @@
     <t>lokavidū</t>
   </si>
   <si>
+    <t>paṭighāta 1</t>
+  </si>
+  <si>
     <t>gāha 2.2</t>
   </si>
   <si>
-    <t>paṭighāta 1</t>
-  </si>
-  <si>
     <t>nahāyati</t>
   </si>
   <si>
@@ -2599,15 +2599,15 @@
     <t>passeyya 1</t>
   </si>
   <si>
+    <t>vihareyya</t>
+  </si>
+  <si>
     <t>uppajjeyya</t>
   </si>
   <si>
     <t>upapajjeyya</t>
   </si>
   <si>
-    <t>vihareyya</t>
-  </si>
-  <si>
     <t>hanati 2</t>
   </si>
   <si>
@@ -2644,6 +2644,12 @@
     <t>disā 1</t>
   </si>
   <si>
+    <t>nisajjā 1</t>
+  </si>
+  <si>
+    <t>kathā 1</t>
+  </si>
+  <si>
     <t>paññā 1</t>
   </si>
   <si>
@@ -2698,12 +2704,6 @@
     <t>avijjā</t>
   </si>
   <si>
-    <t>nisajjā 1</t>
-  </si>
-  <si>
-    <t>kathā 1</t>
-  </si>
-  <si>
     <t>upasampadā 2</t>
   </si>
   <si>
@@ -2746,60 +2746,60 @@
     <t>hitvā</t>
   </si>
   <si>
+    <t>disvā</t>
+  </si>
+  <si>
+    <t>hutvā 1</t>
+  </si>
+  <si>
+    <t>ñatvā</t>
+  </si>
+  <si>
+    <t>sāyitvā</t>
+  </si>
+  <si>
+    <t>sutvā</t>
+  </si>
+  <si>
+    <t>pharitvā 1</t>
+  </si>
+  <si>
+    <t>chetvā 1</t>
+  </si>
+  <si>
+    <t>katvā 1</t>
+  </si>
+  <si>
+    <t>ābhujitvā</t>
+  </si>
+  <si>
+    <t>paṭissutvā</t>
+  </si>
+  <si>
+    <t>katvāna 1</t>
+  </si>
+  <si>
+    <t>caritvā 1.1</t>
+  </si>
+  <si>
+    <t>gahetvā 1</t>
+  </si>
+  <si>
+    <t>karitvā 1</t>
+  </si>
+  <si>
+    <t>vatvā</t>
+  </si>
+  <si>
+    <t>upasaṅkamitvā</t>
+  </si>
+  <si>
+    <t>disvāna</t>
+  </si>
+  <si>
     <t>paggahetvā 2</t>
   </si>
   <si>
-    <t>disvā</t>
-  </si>
-  <si>
-    <t>hutvā 1</t>
-  </si>
-  <si>
-    <t>ñatvā</t>
-  </si>
-  <si>
-    <t>sāyitvā</t>
-  </si>
-  <si>
-    <t>sutvā</t>
-  </si>
-  <si>
-    <t>pharitvā 1</t>
-  </si>
-  <si>
-    <t>chetvā 1</t>
-  </si>
-  <si>
-    <t>katvā 1</t>
-  </si>
-  <si>
-    <t>ābhujitvā</t>
-  </si>
-  <si>
-    <t>paṭissutvā</t>
-  </si>
-  <si>
-    <t>katvāna 1</t>
-  </si>
-  <si>
-    <t>caritvā 1.1</t>
-  </si>
-  <si>
-    <t>gahetvā 1</t>
-  </si>
-  <si>
-    <t>karitvā 1</t>
-  </si>
-  <si>
-    <t>vatvā</t>
-  </si>
-  <si>
-    <t>upasaṅkamitvā</t>
-  </si>
-  <si>
-    <t>disvāna</t>
-  </si>
-  <si>
     <t>mātar</t>
   </si>
   <si>
@@ -2830,27 +2830,27 @@
     <t>paṇidhāya 1</t>
   </si>
   <si>
+    <t>ādāya 4</t>
+  </si>
+  <si>
+    <t>pahāya 1</t>
+  </si>
+  <si>
+    <t>upasampajja 1</t>
+  </si>
+  <si>
+    <t>vivicca</t>
+  </si>
+  <si>
+    <t>uṭṭhāya</t>
+  </si>
+  <si>
+    <t>nisajja</t>
+  </si>
+  <si>
     <t>abhinivissa</t>
   </si>
   <si>
-    <t>ādāya 4</t>
-  </si>
-  <si>
-    <t>pahāya 1</t>
-  </si>
-  <si>
-    <t>upasampajja 1</t>
-  </si>
-  <si>
-    <t>vivicca</t>
-  </si>
-  <si>
-    <t>uṭṭhāya</t>
-  </si>
-  <si>
-    <t>nisajja</t>
-  </si>
-  <si>
     <t>ṭhiti 1</t>
   </si>
   <si>
@@ -2878,21 +2878,21 @@
     <t>ruci</t>
   </si>
   <si>
+    <t>sati 1.2</t>
+  </si>
+  <si>
+    <t>pīti 1.1</t>
+  </si>
+  <si>
+    <t>passaddhi</t>
+  </si>
+  <si>
+    <t>saṅghāṭi 1</t>
+  </si>
+  <si>
     <t>sugati</t>
   </si>
   <si>
-    <t>sati 1.2</t>
-  </si>
-  <si>
-    <t>pīti 1.1</t>
-  </si>
-  <si>
-    <t>passaddhi</t>
-  </si>
-  <si>
-    <t>saṅghāṭi 1</t>
-  </si>
-  <si>
     <t>vimutti</t>
   </si>
   <si>
@@ -2902,51 +2902,51 @@
     <t>yattha</t>
   </si>
   <si>
+    <t>tatra 2</t>
+  </si>
+  <si>
+    <t>idha 1</t>
+  </si>
+  <si>
+    <t>tattha 2</t>
+  </si>
+  <si>
+    <t>katthaci 1</t>
+  </si>
+  <si>
+    <t>purato</t>
+  </si>
+  <si>
+    <t>idha 2</t>
+  </si>
+  <si>
+    <t>ekato 1</t>
+  </si>
+  <si>
+    <t>sabbattha 1</t>
+  </si>
+  <si>
+    <t>tattha 1</t>
+  </si>
+  <si>
+    <t>upari 1</t>
+  </si>
+  <si>
+    <t>yato 2</t>
+  </si>
+  <si>
+    <t>tatra 1</t>
+  </si>
+  <si>
+    <t>tato 4</t>
+  </si>
+  <si>
     <t>ettha 1</t>
   </si>
   <si>
-    <t>tatra 2</t>
-  </si>
-  <si>
-    <t>idha 1</t>
-  </si>
-  <si>
-    <t>katthaci 1</t>
-  </si>
-  <si>
-    <t>purato</t>
-  </si>
-  <si>
-    <t>idha 2</t>
-  </si>
-  <si>
-    <t>ekato 1</t>
-  </si>
-  <si>
     <t>kuto 1</t>
   </si>
   <si>
-    <t>sabbattha 1</t>
-  </si>
-  <si>
-    <t>tattha 1</t>
-  </si>
-  <si>
-    <t>upari 1</t>
-  </si>
-  <si>
-    <t>yato 2</t>
-  </si>
-  <si>
-    <t>tatra 1</t>
-  </si>
-  <si>
-    <t>tato 4</t>
-  </si>
-  <si>
-    <t>tattha 2</t>
-  </si>
-  <si>
     <t>dhātu 1</t>
   </si>
   <si>
@@ -3013,294 +3013,294 @@
     <t>bhūta 3</t>
   </si>
   <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>hitāya</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>anagāriya</t>
+  </si>
+  <si>
+    <t>agāra 2</t>
+  </si>
+  <si>
+    <t>sukha 2</t>
+  </si>
+  <si>
+    <t>hita 3</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>vīriya 1</t>
+  </si>
+  <si>
+    <t>vepulla 1</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>aṅga 1</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>khetta 1</t>
+  </si>
+  <si>
+    <t>nāma 4</t>
+  </si>
+  <si>
+    <t>pada 12</t>
+  </si>
+  <si>
+    <t>kula 2</t>
+  </si>
+  <si>
+    <t>ratana 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>pahāna</t>
+  </si>
+  <si>
+    <t>ṭhāna 02</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>arañña</t>
+  </si>
+  <si>
+    <t>nagara 1</t>
+  </si>
+  <si>
+    <t>sīsa 1</t>
+  </si>
+  <si>
+    <t>bala 2</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>jīvita 2</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
+    <t>bhadra 3</t>
+  </si>
+  <si>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>passa 1.1</t>
+  </si>
+  <si>
+    <t>amata 1</t>
+  </si>
+  <si>
+    <t>padhāna 1</t>
+  </si>
+  <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
+    <t>vattha 1.1</t>
+  </si>
+  <si>
+    <t>puñña 1</t>
+  </si>
+  <si>
+    <t>santhata 1</t>
+  </si>
+  <si>
+    <t>nissaraṇa</t>
+  </si>
+  <si>
+    <t>ñāṇa</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>ghara 1</t>
+  </si>
+  <si>
+    <t>dassanāya 2</t>
+  </si>
+  <si>
+    <t>phala 1.1</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>dukkha 3</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>vera</t>
+  </si>
+  <si>
+    <t>aṅga 2</t>
+  </si>
+  <si>
+    <t>aparihāna</t>
+  </si>
+  <si>
+    <t>veyyākaraṇa 1</t>
+  </si>
+  <si>
+    <t>dāna 1.1</t>
+  </si>
+  <si>
+    <t>sota 2.1</t>
+  </si>
+  <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>thala 1</t>
+  </si>
+  <si>
+    <t>nibbāna 2</t>
+  </si>
+  <si>
+    <t>saraṇa 2.1</t>
+  </si>
+  <si>
+    <t>vana 1.1</t>
+  </si>
+  <si>
+    <t>sikkhāpada</t>
+  </si>
+  <si>
+    <t>bhaya 3</t>
+  </si>
+  <si>
+    <t>vajja 3</t>
+  </si>
+  <si>
+    <t>mukha 3</t>
+  </si>
+  <si>
+    <t>bhojana 2</t>
+  </si>
+  <si>
+    <t>vassa 3</t>
+  </si>
+  <si>
+    <t>kusala 4</t>
+  </si>
+  <si>
+    <t>cakka 1</t>
+  </si>
+  <si>
+    <t>rūpa 3</t>
+  </si>
+  <si>
+    <t>viññāṇa 1</t>
+  </si>
+  <si>
+    <t>addhāna 2</t>
+  </si>
+  <si>
+    <t>dāna 1.2</t>
+  </si>
+  <si>
+    <t>āsana 1</t>
+  </si>
+  <si>
+    <t>dassana 3</t>
+  </si>
+  <si>
+    <t>mūla 1</t>
+  </si>
+  <si>
+    <t>maṃsa 1</t>
+  </si>
+  <si>
+    <t>tīra</t>
+  </si>
+  <si>
+    <t>raṭṭha</t>
+  </si>
+  <si>
+    <t>somanassa</t>
+  </si>
+  <si>
+    <t>cīvara</t>
+  </si>
+  <si>
+    <t>sāsana 1</t>
+  </si>
+  <si>
+    <t>bhatta 1.1</t>
+  </si>
+  <si>
+    <t>pāra 1.1</t>
+  </si>
+  <si>
+    <t>ātappa</t>
+  </si>
+  <si>
+    <t>dhana 1</t>
+  </si>
+  <si>
+    <t>bala 1</t>
+  </si>
+  <si>
+    <t>nimitta 1</t>
+  </si>
+  <si>
+    <t>sacca 2</t>
+  </si>
+  <si>
+    <t>jīvita 1</t>
+  </si>
+  <si>
+    <t>ghāna</t>
+  </si>
+  <si>
+    <t>appaka 2</t>
+  </si>
+  <si>
+    <t>addhāna 1</t>
+  </si>
+  <si>
+    <t>ottappa</t>
+  </si>
+  <si>
+    <t>citta 1.1</t>
+  </si>
+  <si>
     <t>jīva 2</t>
   </si>
   <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>hitāya</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>anagāriya</t>
-  </si>
-  <si>
-    <t>agāra 2</t>
-  </si>
-  <si>
-    <t>sukha 2</t>
-  </si>
-  <si>
-    <t>hita 3</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>vīriya 1</t>
-  </si>
-  <si>
-    <t>vepulla 1</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>aṅga 1</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>khetta 1</t>
-  </si>
-  <si>
-    <t>nāma 4</t>
-  </si>
-  <si>
-    <t>pada 12</t>
-  </si>
-  <si>
-    <t>kula 2</t>
-  </si>
-  <si>
-    <t>ratana 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>pahāna</t>
-  </si>
-  <si>
-    <t>ṭhāna 02</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
-  </si>
-  <si>
-    <t>arañña</t>
-  </si>
-  <si>
-    <t>nagara 1</t>
-  </si>
-  <si>
-    <t>sīsa 1</t>
-  </si>
-  <si>
-    <t>bala 2</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>amata 1</t>
-  </si>
-  <si>
-    <t>jīvita 2</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>bhadra 3</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>passa 1.1</t>
-  </si>
-  <si>
-    <t>padhāna 1</t>
-  </si>
-  <si>
-    <t>vattha 1.1</t>
-  </si>
-  <si>
-    <t>puñña 1</t>
-  </si>
-  <si>
-    <t>santhata 1</t>
-  </si>
-  <si>
-    <t>nissaraṇa</t>
-  </si>
-  <si>
-    <t>ñāṇa</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
-  </si>
-  <si>
-    <t>ghara 1</t>
-  </si>
-  <si>
-    <t>dassanāya 2</t>
-  </si>
-  <si>
-    <t>phala 1.1</t>
-  </si>
-  <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>dukkha 3</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>vera</t>
-  </si>
-  <si>
-    <t>aṅga 2</t>
-  </si>
-  <si>
-    <t>aparihāna</t>
-  </si>
-  <si>
-    <t>veyyākaraṇa 1</t>
-  </si>
-  <si>
-    <t>dāna 1.1</t>
-  </si>
-  <si>
-    <t>sota 2.1</t>
-  </si>
-  <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>thala 1</t>
-  </si>
-  <si>
-    <t>nibbāna 2</t>
-  </si>
-  <si>
-    <t>saraṇa 2.1</t>
-  </si>
-  <si>
-    <t>vana 1.1</t>
-  </si>
-  <si>
-    <t>vajja 3</t>
-  </si>
-  <si>
-    <t>sikkhāpada</t>
-  </si>
-  <si>
-    <t>bhaya 3</t>
-  </si>
-  <si>
-    <t>mukha 3</t>
-  </si>
-  <si>
-    <t>bhojana 2</t>
-  </si>
-  <si>
-    <t>vassa 3</t>
-  </si>
-  <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
-    <t>kusala 4</t>
-  </si>
-  <si>
-    <t>cakka 1</t>
-  </si>
-  <si>
-    <t>rūpa 3</t>
-  </si>
-  <si>
-    <t>viññāṇa 1</t>
-  </si>
-  <si>
-    <t>addhāna 2</t>
-  </si>
-  <si>
-    <t>dāna 1.2</t>
-  </si>
-  <si>
-    <t>āsana 1</t>
-  </si>
-  <si>
-    <t>dassana 3</t>
-  </si>
-  <si>
-    <t>mūla 1</t>
-  </si>
-  <si>
-    <t>maṃsa 1</t>
-  </si>
-  <si>
-    <t>tīra</t>
-  </si>
-  <si>
-    <t>raṭṭha</t>
-  </si>
-  <si>
-    <t>somanassa</t>
-  </si>
-  <si>
-    <t>cīvara</t>
-  </si>
-  <si>
-    <t>sāsana 1</t>
-  </si>
-  <si>
-    <t>bhatta 1.1</t>
-  </si>
-  <si>
-    <t>pāra 1.1</t>
-  </si>
-  <si>
-    <t>ātappa</t>
-  </si>
-  <si>
-    <t>dhana 1</t>
-  </si>
-  <si>
-    <t>bala 1</t>
-  </si>
-  <si>
-    <t>nimitta 1</t>
-  </si>
-  <si>
-    <t>sacca 2</t>
-  </si>
-  <si>
-    <t>jīvita 1</t>
-  </si>
-  <si>
-    <t>ghāna</t>
-  </si>
-  <si>
-    <t>appaka 2</t>
-  </si>
-  <si>
-    <t>addhāna 1</t>
-  </si>
-  <si>
-    <t>ottappa</t>
-  </si>
-  <si>
-    <t>citta 1.1</t>
-  </si>
-  <si>
     <t>jhāna 2</t>
   </si>
   <si>
@@ -3481,42 +3481,42 @@
     <t>(of person or place or thing) that; such; so and so</t>
   </si>
   <si>
+    <t>seeing</t>
+  </si>
+  <si>
+    <t>knowing; being aware (of)</t>
+  </si>
+  <si>
+    <t>seeing; perceiving</t>
+  </si>
+  <si>
+    <t>standing; standing still</t>
+  </si>
+  <si>
+    <t>remembering; recollecting; keeping in mind</t>
+  </si>
+  <si>
+    <t>going; walking; travelling</t>
+  </si>
+  <si>
+    <t>living (in); staying (at); remaining (in); continuing (in)</t>
+  </si>
+  <si>
+    <t>lasting; remaining; persisting; lit. standing</t>
+  </si>
+  <si>
+    <t>not knowing; being ignorant (of)</t>
+  </si>
+  <si>
     <t>not asking permission; not informing</t>
   </si>
   <si>
-    <t>seeing</t>
-  </si>
-  <si>
-    <t>knowing; being aware (of)</t>
-  </si>
-  <si>
-    <t>seeing; perceiving</t>
-  </si>
-  <si>
-    <t>standing; standing still</t>
-  </si>
-  <si>
-    <t>remembering; recollecting; keeping in mind</t>
-  </si>
-  <si>
-    <t>going; walking; travelling</t>
-  </si>
-  <si>
-    <t>living (in); staying (at); remaining (in); continuing (in)</t>
-  </si>
-  <si>
     <t>not seeing; not noticing; not aware</t>
   </si>
   <si>
-    <t>not knowing; being ignorant (of)</t>
-  </si>
-  <si>
     <t>finding fault; thinking badly of</t>
   </si>
   <si>
-    <t>lasting; remaining; persisting; lit. standing</t>
-  </si>
-  <si>
     <t>certain; one of</t>
   </si>
   <si>
@@ -3526,30 +3526,30 @@
     <t>this</t>
   </si>
   <si>
+    <t>falling away; dying</t>
+  </si>
+  <si>
+    <t>walking; walking about; wandering around (in); going around</t>
+  </si>
+  <si>
+    <t>seeing; observing; considering</t>
+  </si>
+  <si>
+    <t>arising; appearing; coming into being</t>
+  </si>
+  <si>
+    <t>wishing (for); desiring (for); seeking (for)</t>
+  </si>
+  <si>
+    <t>speaking (about); talking (about); saying</t>
+  </si>
+  <si>
     <t>being reborn; re-arising; lit. going towards</t>
   </si>
   <si>
-    <t>falling away; dying</t>
-  </si>
-  <si>
-    <t>walking; walking about; wandering around (in); going around</t>
-  </si>
-  <si>
     <t>reviewing; reflecting (on); looking (at); lit. looking back down</t>
   </si>
   <si>
-    <t>seeing; observing; considering</t>
-  </si>
-  <si>
-    <t>arising; appearing; coming into being</t>
-  </si>
-  <si>
-    <t>wishing (for); desiring (for); seeking (for)</t>
-  </si>
-  <si>
-    <t>speaking (about); talking (about); saying</t>
-  </si>
-  <si>
     <t>sexual</t>
   </si>
   <si>
@@ -3604,12 +3604,12 @@
     <t>eastern</t>
   </si>
   <si>
+    <t>fine; refined; excellent; superior; sublime; lit. brought forward</t>
+  </si>
+  <si>
     <t>low; inferior; deficient</t>
   </si>
   <si>
-    <t>fine; refined; excellent; superior; sublime; lit. brought forward</t>
-  </si>
-  <si>
     <t>impermanent; inconstant; not lasting; discontinuous; disordered; unstable; unreliable; irregular</t>
   </si>
   <si>
@@ -3751,150 +3751,150 @@
     <t>pure; bright</t>
   </si>
   <si>
+    <t>highest (of); unsurpassed (by); incomparable (to); superior (to); lit. nothing higher</t>
+  </si>
+  <si>
+    <t>immeasurable; unlimited; limitless; boundless</t>
+  </si>
+  <si>
+    <t>great; venerable; honourable; respected</t>
+  </si>
+  <si>
+    <t>vast; extensive; expansive; massive</t>
+  </si>
+  <si>
+    <t>irreproachable; faultless; blameless; innocent; lit. not to be dispraised</t>
+  </si>
+  <si>
+    <t>well spoken; articulate; eloquent</t>
+  </si>
+  <si>
+    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
+  </si>
+  <si>
+    <t>before; previous; earlier; former</t>
+  </si>
+  <si>
+    <t>clearly aware; fully knowing; completely comprehending</t>
+  </si>
+  <si>
+    <t>not dear (to); unloved (by); disliked (by)</t>
+  </si>
+  <si>
+    <t>liked; pleasant; agreeable</t>
+  </si>
+  <si>
+    <t>easy (on); comfortable (for); pleasant (for); good (for); contented</t>
+  </si>
+  <si>
+    <t>mere; simple; the fact of; by virtue of</t>
+  </si>
+  <si>
+    <t>signless; featureless; free of mental images; lit. no sign</t>
+  </si>
+  <si>
+    <t>lazy; slack; inactive; apathetic</t>
+  </si>
+  <si>
+    <t>existing; born; living; lit. become</t>
+  </si>
+  <si>
+    <t>(of food) solid; heavy; substantial</t>
+  </si>
+  <si>
+    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
+  </si>
+  <si>
+    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
+  </si>
+  <si>
+    <t>unbroken; unfragmented; whole</t>
+  </si>
+  <si>
+    <t>with investigation; with consideration</t>
+  </si>
+  <si>
+    <t>with thinking; accompanied with reflection</t>
+  </si>
+  <si>
+    <t>unskilful; incompetent; inexperienced</t>
+  </si>
+  <si>
+    <t>heavenly</t>
+  </si>
+  <si>
+    <t>best; highest; ultimate; supreme; top</t>
+  </si>
+  <si>
+    <t>marvellous; extraordinary; unbelievable; astonishing</t>
+  </si>
+  <si>
+    <t>wonderful; marvellous</t>
+  </si>
+  <si>
+    <t>eternal; everlasting; endless; perpetual; (comm) existing forever</t>
+  </si>
+  <si>
+    <t>stable; enduring; eternal; everlasting</t>
+  </si>
+  <si>
+    <t>excellent; lofty; high; noble</t>
+  </si>
+  <si>
+    <t>progressing; moving on; (comm) ending; depletion</t>
+  </si>
+  <si>
+    <t>amount of; as many as; measure of; consisting of</t>
+  </si>
+  <si>
+    <t>as much as; as long as; as big as; as far as</t>
+  </si>
+  <si>
+    <t>suitable (for); proper (for); appropriate (for); befitting (for)</t>
+  </si>
+  <si>
+    <t>aged; old; ancient</t>
+  </si>
+  <si>
+    <t>new; fresh</t>
+  </si>
+  <si>
+    <t>few; not many; not much</t>
+  </si>
+  <si>
+    <t>fit (for); capable (of); suitable (for)</t>
+  </si>
+  <si>
+    <t>well taught; well preached; well explained</t>
+  </si>
+  <si>
+    <t>harmful; hurtful; injurious (to living creatures)</t>
+  </si>
+  <si>
+    <t>dark; black</t>
+  </si>
+  <si>
+    <t>unprincipled; immoral; of bad behaviour</t>
+  </si>
+  <si>
+    <t>noble; distinguished; of the Buddha</t>
+  </si>
+  <si>
+    <t>superb; surpassing; excellent</t>
+  </si>
+  <si>
+    <t>difficult to find (for); hard to obtain (for); rare (for)</t>
+  </si>
+  <si>
+    <t>secluded; isolated; solitary</t>
+  </si>
+  <si>
     <t>engaged (in); practising (to); lit. yoked</t>
   </si>
   <si>
-    <t>highest (of); unsurpassed (by); incomparable (to); superior (to); lit. nothing higher</t>
-  </si>
-  <si>
-    <t>great; venerable; honourable; respected</t>
-  </si>
-  <si>
-    <t>vast; extensive; expansive; massive</t>
-  </si>
-  <si>
-    <t>immeasurable; unlimited; limitless; boundless</t>
-  </si>
-  <si>
-    <t>irreproachable; faultless; blameless; innocent; lit. not to be dispraised</t>
-  </si>
-  <si>
-    <t>well spoken; articulate; eloquent</t>
-  </si>
-  <si>
-    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
-  </si>
-  <si>
-    <t>before; previous; earlier; former</t>
-  </si>
-  <si>
-    <t>clearly aware; fully knowing; completely comprehending</t>
-  </si>
-  <si>
-    <t>not dear (to); unloved (by); disliked (by)</t>
-  </si>
-  <si>
-    <t>liked; pleasant; agreeable</t>
-  </si>
-  <si>
-    <t>superb; surpassing; excellent</t>
-  </si>
-  <si>
-    <t>easy (on); comfortable (for); pleasant (for); good (for); contented</t>
-  </si>
-  <si>
-    <t>mere; simple; the fact of; by virtue of</t>
-  </si>
-  <si>
-    <t>signless; featureless; free of mental images; lit. no sign</t>
-  </si>
-  <si>
-    <t>lazy; slack; inactive; apathetic</t>
-  </si>
-  <si>
-    <t>existing; born; living; lit. become</t>
-  </si>
-  <si>
-    <t>(of food) solid; heavy; substantial</t>
-  </si>
-  <si>
-    <t>unbroken; unfragmented; whole</t>
-  </si>
-  <si>
-    <t>with investigation; with consideration</t>
-  </si>
-  <si>
-    <t>with thinking; accompanied with reflection</t>
-  </si>
-  <si>
-    <t>unskilful; incompetent; inexperienced</t>
-  </si>
-  <si>
-    <t>heavenly</t>
-  </si>
-  <si>
-    <t>best; highest; ultimate; supreme; top</t>
-  </si>
-  <si>
-    <t>marvellous; extraordinary; unbelievable; astonishing</t>
-  </si>
-  <si>
-    <t>wonderful; marvellous</t>
-  </si>
-  <si>
-    <t>difficult to find (for); hard to obtain (for); rare (for)</t>
-  </si>
-  <si>
-    <t>eternal; everlasting; endless; perpetual; (comm) existing forever</t>
-  </si>
-  <si>
-    <t>stable; enduring; eternal; everlasting</t>
-  </si>
-  <si>
-    <t>excellent; lofty; high; noble</t>
-  </si>
-  <si>
-    <t>progressing; moving on; (comm) ending; depletion</t>
-  </si>
-  <si>
-    <t>amount of; as many as; measure of; consisting of</t>
-  </si>
-  <si>
-    <t>secluded; isolated; solitary</t>
-  </si>
-  <si>
-    <t>as much as; as long as; as big as; as far as</t>
-  </si>
-  <si>
-    <t>suitable (for); proper (for); appropriate (for); befitting (for)</t>
-  </si>
-  <si>
-    <t>aged; old; ancient</t>
-  </si>
-  <si>
-    <t>new; fresh</t>
-  </si>
-  <si>
-    <t>few; not many; not much</t>
-  </si>
-  <si>
-    <t>fit (for); capable (of); suitable (for)</t>
-  </si>
-  <si>
-    <t>well taught; well preached; well explained</t>
-  </si>
-  <si>
     <t>essential; substantial; valuable; sound</t>
   </si>
   <si>
-    <t>harmful; hurtful; injurious (to living creatures)</t>
-  </si>
-  <si>
-    <t>dark; black</t>
-  </si>
-  <si>
-    <t>unprincipled; immoral; of bad behaviour</t>
-  </si>
-  <si>
-    <t>noble; distinguished; of the Buddha</t>
-  </si>
-  <si>
-    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
-  </si>
-  <si>
-    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
-  </si>
-  <si>
     <t>fine; subtle; refined</t>
   </si>
   <si>
@@ -4030,12 +4030,12 @@
     <t>aroused; applied; undertaken</t>
   </si>
   <si>
+    <t>so much; this much; so long</t>
+  </si>
+  <si>
     <t>bad; wicked; evil; wrong; worthless; harmful</t>
   </si>
   <si>
-    <t>so much; this much; so long</t>
-  </si>
-  <si>
     <t>big; great; large; grand; vast; extensive</t>
   </si>
   <si>
@@ -4147,66 +4147,66 @@
     <t>is called; is named; is said to be</t>
   </si>
   <si>
+    <t>is said to be; is called</t>
+  </si>
+  <si>
+    <t>is abandoned; is given up</t>
+  </si>
+  <si>
+    <t>dissolves; finishes; stops; ceases; vanishes</t>
+  </si>
+  <si>
+    <t>is known; is evident; is perceived</t>
+  </si>
+  <si>
+    <t>arises (in); is produced (from)</t>
+  </si>
+  <si>
+    <t>is released (from); is free (from)</t>
+  </si>
+  <si>
+    <t>exists (in); is found (in); is present (in)</t>
+  </si>
+  <si>
+    <t>(of mental defilement) is completely quenched; is entirely emancipated; is completely cooled</t>
+  </si>
+  <si>
+    <t>is free (from); becomes free (from); is released (from)</t>
+  </si>
+  <si>
+    <t>is clearly known; is evident; is perceived; there is</t>
+  </si>
+  <si>
+    <t>is calmed (for); becomes collected (for); becomes composed (for); becomes stable (for); lit. is placed together</t>
+  </si>
+  <si>
+    <t>becomes detached (from); loses interest (in); becomes dispassionate (towards); gets bored (with)</t>
+  </si>
+  <si>
+    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
+  </si>
+  <si>
+    <t>is hurt; is killed; is destroyed</t>
+  </si>
+  <si>
+    <t>seems; lit. is seen</t>
+  </si>
+  <si>
+    <t>is being eaten (by); is being nibbled (by); lit. is being chewed</t>
+  </si>
+  <si>
+    <t>is seen; is observed; is manifest</t>
+  </si>
+  <si>
     <t>is cut off; is severed</t>
   </si>
   <si>
-    <t>is said to be; is called</t>
-  </si>
-  <si>
-    <t>is abandoned; is given up</t>
-  </si>
-  <si>
-    <t>dissolves; finishes; stops; ceases; vanishes</t>
-  </si>
-  <si>
-    <t>is known; is evident; is perceived</t>
-  </si>
-  <si>
-    <t>arises (in); is produced (from)</t>
-  </si>
-  <si>
-    <t>is released (from); is free (from)</t>
-  </si>
-  <si>
-    <t>exists (in); is found (in); is present (in)</t>
-  </si>
-  <si>
     <t>is perturbed; is shaken; is agitated; is anguished</t>
   </si>
   <si>
-    <t>(of mental defilement) is completely quenched; is entirely emancipated; is completely cooled</t>
-  </si>
-  <si>
-    <t>is free (from); becomes free (from); is released (from)</t>
-  </si>
-  <si>
-    <t>is clearly known; is evident; is perceived; there is</t>
-  </si>
-  <si>
-    <t>is calmed (for); becomes collected (for); becomes composed (for); becomes stable (for); lit. is placed together</t>
-  </si>
-  <si>
-    <t>becomes detached (from); loses interest (in); becomes dispassionate (towards); gets bored (with)</t>
-  </si>
-  <si>
-    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
-  </si>
-  <si>
     <t>disappears; vanishes; perishes; is destroyed</t>
   </si>
   <si>
-    <t>is hurt; is killed; is destroyed</t>
-  </si>
-  <si>
-    <t>seems; lit. is seen</t>
-  </si>
-  <si>
-    <t>is being eaten (by); is being nibbled (by); lit. is being chewed</t>
-  </si>
-  <si>
-    <t>is seen; is observed; is manifest</t>
-  </si>
-  <si>
     <t>moreover; and so; but; or; however</t>
   </si>
   <si>
@@ -4243,12 +4243,15 @@
     <t>indeed; certainly; truly; definitely</t>
   </si>
   <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of); lit. near</t>
+  </si>
+  <si>
     <t>away (from); far away (from); distant (from)</t>
   </si>
   <si>
-    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of); lit. near</t>
-  </si>
-  <si>
     <t>externally; outwardly</t>
   </si>
   <si>
@@ -4264,9 +4267,6 @@
     <t>in many ways; in many forms</t>
   </si>
   <si>
-    <t>if</t>
-  </si>
-  <si>
     <t>then; also; and so; after that</t>
   </si>
   <si>
@@ -4297,6 +4297,9 @@
     <t>oh!; oh no!; oh dear!; wow!</t>
   </si>
   <si>
+    <t>easily; comfortably; pleasantly; happily</t>
+  </si>
+  <si>
     <t>internally; inwardly; personally</t>
   </si>
   <si>
@@ -4339,9 +4342,6 @@
     <t>differently; otherwise</t>
   </si>
   <si>
-    <t>easily; comfortably; pleasantly; happily</t>
-  </si>
-  <si>
     <t>properly; prudently; thoroughly; carefully; intelligently; lit. to the source</t>
   </si>
   <si>
@@ -4378,15 +4378,15 @@
     <t>should be made; should be done; should be built; lit. to be caused to do</t>
   </si>
   <si>
+    <t>should be cultivated; should be developed; lit. to be caused to be</t>
+  </si>
+  <si>
+    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
+  </si>
+  <si>
     <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
   </si>
   <si>
-    <t>should be cultivated; should be developed; lit. to be caused to be</t>
-  </si>
-  <si>
-    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
-  </si>
-  <si>
     <t>should be given up (by); should be abandoned (by); lit. to be abandoned</t>
   </si>
   <si>
@@ -4432,66 +4432,66 @@
     <t>preach (to); teaches (to); explains (to)</t>
   </si>
   <si>
+    <t>calms down; settles; stills; makes subside; lit. causes to be calm</t>
+  </si>
+  <si>
+    <t>honour; reveres; hold in high esteem</t>
+  </si>
+  <si>
+    <t>establishes; sets up; causes to be present; makes sure one has; lit. causes to stand near</t>
+  </si>
+  <si>
+    <t>is evident; lit. makes itself known</t>
+  </si>
+  <si>
+    <t>fills up; fills out; lit. causes to fill</t>
+  </si>
+  <si>
+    <t>soaks; drenches; lit. makes flow around</t>
+  </si>
+  <si>
+    <t>inclines (towards); bends (towards); directs (towards)</t>
+  </si>
+  <si>
+    <t>explains; illustrates; illuminates; reveals; teaches</t>
+  </si>
+  <si>
+    <t>cleans (from); purifies (of)</t>
+  </si>
+  <si>
+    <t>stretches out; straightens; extends; lit. causes to go forward</t>
+  </si>
+  <si>
+    <t>exceeds; goes over; oversteps; lit. causes to go beyond</t>
+  </si>
+  <si>
+    <t>builds; has constructed; lit. causes to build</t>
+  </si>
+  <si>
+    <t>prepares; arranges; forms; fashions; constructs</t>
+  </si>
+  <si>
+    <t>teaches; preaches; proclaims; lit. causes to know</t>
+  </si>
+  <si>
+    <t>generates; produces; lit. causes to be born</t>
+  </si>
+  <si>
+    <t>cultivates; develops; lit. causes to become</t>
+  </si>
+  <si>
+    <t>agrees (with); matches (with); fits (with); fits in (with)</t>
+  </si>
+  <si>
+    <t>fills up; fills to the brim; overflows; lit. causes to overflow</t>
+  </si>
+  <si>
+    <t>performs; practices</t>
+  </si>
+  <si>
     <t>banishes (from); exiles (from); drives away (from); lit. causes to leave</t>
   </si>
   <si>
-    <t>calms down; settles; stills; makes subside; lit. causes to be calm</t>
-  </si>
-  <si>
-    <t>honour; reveres; hold in high esteem</t>
-  </si>
-  <si>
-    <t>establishes; sets up; causes to be present; makes sure one has; lit. causes to stand near</t>
-  </si>
-  <si>
-    <t>performs; practices</t>
-  </si>
-  <si>
-    <t>is evident; lit. makes itself known</t>
-  </si>
-  <si>
-    <t>fills up; fills out; lit. causes to fill</t>
-  </si>
-  <si>
-    <t>soaks; drenches; lit. makes flow around</t>
-  </si>
-  <si>
-    <t>fills up; fills to the brim; overflows; lit. causes to overflow</t>
-  </si>
-  <si>
-    <t>inclines (towards); bends (towards); directs (towards)</t>
-  </si>
-  <si>
-    <t>explains; illustrates; illuminates; reveals; teaches</t>
-  </si>
-  <si>
-    <t>cleans (from); purifies (of)</t>
-  </si>
-  <si>
-    <t>stretches out; straightens; extends; lit. causes to go forward</t>
-  </si>
-  <si>
-    <t>exceeds; goes over; oversteps; lit. causes to go beyond</t>
-  </si>
-  <si>
-    <t>builds; has constructed; lit. causes to build</t>
-  </si>
-  <si>
-    <t>prepares; arranges; forms; fashions; constructs</t>
-  </si>
-  <si>
-    <t>cultivates; develops; lit. causes to become</t>
-  </si>
-  <si>
-    <t>teaches; preaches; proclaims; lit. causes to know</t>
-  </si>
-  <si>
-    <t>generates; produces; lit. causes to be born</t>
-  </si>
-  <si>
-    <t>agrees (with); matches (with); fits (with); fits in (with)</t>
-  </si>
-  <si>
     <t>was careless (about); neglected; was negligent (with); was heedless (about)</t>
   </si>
   <si>
@@ -4513,15 +4513,15 @@
     <t>flame; fire; heat</t>
   </si>
   <si>
+    <t>water; liquid</t>
+  </si>
+  <si>
+    <t>mind; thought; intention</t>
+  </si>
+  <si>
     <t>air; wind</t>
   </si>
   <si>
-    <t>water; liquid</t>
-  </si>
-  <si>
-    <t>mind; thought; intention</t>
-  </si>
-  <si>
     <t>king; ruler</t>
   </si>
   <si>
@@ -4531,588 +4531,588 @@
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
+    <t>state of existence; form of becoming</t>
+  </si>
+  <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>danger (in); problem (in)</t>
+  </si>
+  <si>
+    <t>enjoyment; satisfaction; pleasure; gratification; (comm) sweetness</t>
+  </si>
+  <si>
+    <t>purpose; use; function</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
+  </si>
+  <si>
+    <t>nature; character</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>Jain; naked ascetic; lit. free from ties</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
+    <t>appearance; complexion; lit. cover</t>
+  </si>
+  <si>
+    <t>fault; offence; transgression; lit. going beyond</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>saying; mentioning</t>
+  </si>
+  <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>name of a former monk; lit. good star sign</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>home; rest; shelter</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>bit of food; alms food</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>mountain; hill</t>
+  </si>
+  <si>
+    <t>shoulder; back</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>sun; lit. shining</t>
+  </si>
+  <si>
+    <t>path; road; way</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>watch (of the night); one eighth of the day; about three hours</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man; smart person</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>wise man; sage; intelligent person</t>
+  </si>
+  <si>
+    <t>rain cloud</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>end (of); limit (of); finish (of); conclusion (of)</t>
+  </si>
+  <si>
+    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>anger; wrath; rage; temper</t>
+  </si>
+  <si>
     <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
-    <t>state of existence; form of becoming</t>
-  </si>
-  <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>danger (in); problem (in)</t>
-  </si>
-  <si>
-    <t>enjoyment; satisfaction; pleasure; gratification; (comm) sweetness</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>purpose; use; function</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
-  </si>
-  <si>
-    <t>nature; character</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>Jain; naked ascetic; lit. free from ties</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>appearance; complexion; lit. cover</t>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>fool; worthless man; useless person; stupid person; lit. empty man</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>time; occasion</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>truth; reality; principle; truth behind the teaching</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>yoke; bond; attachment; (comm) which bind one to the round of cyclical existence</t>
+  </si>
+  <si>
+    <t>tusker; bull elephant</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>being; living being; lit. breath</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>mode of living; way of life; way to spend time; mode of existence</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>end; side; extreme</t>
+  </si>
+  <si>
+    <t>family name; lit. descendant of Kati</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>state; condition; characteristic; nature</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; lit. going away</t>
+  </si>
+  <si>
+    <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>mansion; stately home; palace; building with pillars</t>
+  </si>
+  <si>
+    <t>prince</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>(used to form diminutives) young man; descendent; son of</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>man of the ruling class; young noble</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>non-attention; ignoring; lit. not making in mind</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>well; (comm) pond; pool; lit. water drinking</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>law; case; rule</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>place; location; region; area</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>Sakyan; of the Sakyan people</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
   </si>
   <si>
     <t>sound; voice; tone</t>
   </si>
   <si>
-    <t>fault; offence; transgression; lit. going beyond</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>saying; mentioning</t>
-  </si>
-  <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>name of a former monk; lit. good star sign</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>home; rest; shelter</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>bit of food; alms food</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>sky</t>
-  </si>
-  <si>
-    <t>mountain; hill</t>
-  </si>
-  <si>
-    <t>shoulder; back</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>sun; lit. shining</t>
-  </si>
-  <si>
-    <t>path; road; way</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>middle</t>
-  </si>
-  <si>
-    <t>end; side; extreme</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>watch (of the night); one eighth of the day; about three hours</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man; smart person</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>wise man; sage; intelligent person</t>
-  </si>
-  <si>
-    <t>rain cloud</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>end (of); limit (of); finish (of); conclusion (of)</t>
-  </si>
-  <si>
-    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>anger; wrath; rage; temper</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>fool; worthless man; useless person; stupid person; lit. empty man</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>well; (comm) pond; pool; lit. water drinking</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>time; occasion</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>truth; reality; principle; truth behind the teaching</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>yoke; bond; attachment; (comm) which bind one to the round of cyclical existence</t>
-  </si>
-  <si>
-    <t>tusker; bull elephant</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>place; location; region; area</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>being; living being; lit. breath</t>
-  </si>
-  <si>
-    <t>source; arising; origin; appearance</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>mode of living; way of life; way to spend time; mode of existence</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
-  </si>
-  <si>
-    <t>Sakyan; of the Sakyan people</t>
-  </si>
-  <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>non-attention; ignoring; lit. not making in mind</t>
-  </si>
-  <si>
-    <t>family name; lit. descendant of Kati</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>state; condition; characteristic; nature</t>
-  </si>
-  <si>
-    <t>state of loss; state of misery; lit. going away</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>mansion; stately home; palace; building with pillars</t>
-  </si>
-  <si>
-    <t>prince</t>
-  </si>
-  <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>(used to form diminutives) young man; descendent; son of</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>man of the ruling class; young noble</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>thief; robber</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
-    <t>law; case; rule</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
     <t>lion</t>
   </si>
   <si>
@@ -5155,204 +5155,204 @@
     <t>binds; ties up; imprisons; confines</t>
   </si>
   <si>
+    <t>produces; generates; makes; gives birth to; lit. flows forth</t>
+  </si>
+  <si>
+    <t>sorrows (over); grieves (about); mourns (over)</t>
+  </si>
+  <si>
+    <t>gives up; relinquishes; drops; abandons</t>
+  </si>
+  <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
+  </si>
+  <si>
+    <t>overwhelms; assails; assaults; (comm) occurs; lit. walks all over</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
+  </si>
+  <si>
+    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
+  </si>
+  <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>go!; begone!</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>regards; considers; recognises (as); sees (as)</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>wishes (for); wants; desires; aspires (for)</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
+    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>touches; contacts; feels; experiences</t>
+  </si>
+  <si>
+    <t>pulls up; pulls out; lifts up; raises</t>
+  </si>
+  <si>
+    <t>puts down; places down; lays down; lit. throws down</t>
+  </si>
+  <si>
+    <t>finds; encounters; meets with; lit. sees</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>reflects; considers; discerns</t>
+  </si>
+  <si>
+    <t>gives up; leaves; abandons; deserts</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>proceeds; continues; goes forward; practices</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>lives (in); inhabits; stays (in); is settled (in)</t>
+  </si>
+  <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
+    <t>associates closely (with); attends closely (to); sits at the feet (of); lit. sits around near</t>
+  </si>
+  <si>
+    <t>is; is being; becomes</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>takes care (of); looks after; maintains; lit. carries around</t>
+  </si>
+  <si>
+    <t>has doubt (about); is uncertain (about)</t>
+  </si>
+  <si>
+    <t>lives; stays; resides (in)</t>
+  </si>
+  <si>
+    <t>stands</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>increases (in); grows (in); develops (in); lit. increases</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
     <t>see!; look (at)!</t>
   </si>
   <si>
-    <t>sorrows (over); grieves (about); mourns (over)</t>
-  </si>
-  <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>gives up; relinquishes; drops; abandons</t>
-  </si>
-  <si>
-    <t>associates closely (with); attends closely (to); sits at the feet (of); lit. sits around near</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
-  </si>
-  <si>
-    <t>overwhelms; assails; assaults; (comm) occurs; lit. walks all over</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>goes (from); goes away (from); leaves (from)</t>
-  </si>
-  <si>
-    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
-  </si>
-  <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits; lit. goes near</t>
-  </si>
-  <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>regards; considers; recognises (as); sees (as)</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>wishes (for); wants; desires; aspires (for)</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>touches; contacts; feels; experiences</t>
-  </si>
-  <si>
-    <t>pulls up; pulls out; lifts up; raises</t>
-  </si>
-  <si>
-    <t>puts down; places down; lays down; lit. throws down</t>
-  </si>
-  <si>
-    <t>finds; encounters; meets with; lit. sees</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>reflects; considers; discerns</t>
-  </si>
-  <si>
-    <t>gives up; leaves; abandons; deserts</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
     <t>increases; develops; grows</t>
   </si>
   <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>produces; generates; makes; gives birth to; lit. flows forth</t>
-  </si>
-  <si>
-    <t>proceeds; continues; goes forward; practices</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
-    <t>lives (in); inhabits; stays (in); is settled (in)</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
-    <t>is; is being; becomes</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>takes care (of); looks after; maintains; lit. carries around</t>
-  </si>
-  <si>
-    <t>has doubt (about); is uncertain (about)</t>
-  </si>
-  <si>
-    <t>lives; stays; resides (in)</t>
-  </si>
-  <si>
-    <t>stands</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enjoys; delights (in); takes pleasure (in)</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>increases (in); grows (in); develops (in); lit. increases</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>go!; begone!</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
     <t>worships; honours; respects</t>
   </si>
   <si>
@@ -5371,12 +5371,12 @@
     <t>feels; experiences; senses; notices</t>
   </si>
   <si>
+    <t>sleeps</t>
+  </si>
+  <si>
     <t>bears in mind; keeps in mind; remembers; lit. carries</t>
   </si>
   <si>
-    <t>sleeps</t>
-  </si>
-  <si>
     <t>gives (to); donates (to); offers (to); hands (to)</t>
   </si>
   <si>
@@ -5401,39 +5401,39 @@
     <t>one must listen!; it must hear!</t>
   </si>
   <si>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
     <t>knows; knows clearly; understands; distinguishes</t>
   </si>
   <si>
+    <t>comes to mind; occurs (to)</t>
+  </si>
+  <si>
+    <t>makes the claim (of); claims (to be)</t>
+  </si>
+  <si>
+    <t>gives (to); offers (to); donates (to)</t>
+  </si>
+  <si>
+    <t>comprehends; understands; recognises; distinguishes; is aware (of)</t>
+  </si>
+  <si>
+    <t>knows; understands</t>
+  </si>
+  <si>
+    <t>knows; knows as; perceives; conceives; recognizes</t>
+  </si>
+  <si>
+    <t>holds up; raises up</t>
+  </si>
+  <si>
+    <t>remains (in); continues (in); persists (in); is established (in); stands firm (in); lit. stands together</t>
+  </si>
+  <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>comes to mind; occurs (to)</t>
-  </si>
-  <si>
-    <t>makes the claim (of); claims (to be)</t>
-  </si>
-  <si>
-    <t>gives (to); offers (to); donates (to)</t>
-  </si>
-  <si>
-    <t>comprehends; understands; recognises; distinguishes; is aware (of)</t>
-  </si>
-  <si>
-    <t>knows; understands</t>
-  </si>
-  <si>
-    <t>knows; knows as; perceives; conceives; recognizes</t>
-  </si>
-  <si>
-    <t>holds up; raises up</t>
-  </si>
-  <si>
-    <t>remains (in); continues (in); persists (in); is established (in); stands firm (in); lit. stands together</t>
-  </si>
-  <si>
-    <t>reaches; arrives (at); comes (to)</t>
-  </si>
-  <si>
     <t>trader; dealer</t>
   </si>
   <si>
@@ -5449,6 +5449,9 @@
     <t>takes; grasps; embraces</t>
   </si>
   <si>
+    <t>causes; effects</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
@@ -5458,36 +5461,33 @@
     <t>thinks; imagines; conceives: presumes; supposes</t>
   </si>
   <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
+  </si>
+  <si>
+    <t>gets angry (with); lit. releases</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>appears; arises; takes place</t>
+  </si>
+  <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>cuts off; severs</t>
+  </si>
+  <si>
     <t>grasps; holds (onto); clings (to); takes possession (of); lit. takes near</t>
   </si>
   <si>
-    <t>is reborn (in); re-arises (in); lit. goes towards</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes near</t>
-  </si>
-  <si>
-    <t>gets angry (with); lit. releases</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>appears; arises; takes place</t>
-  </si>
-  <si>
-    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>cuts off; severs</t>
-  </si>
-  <si>
-    <t>causes; effects</t>
-  </si>
-  <si>
     <t>there are; they are</t>
   </si>
   <si>
@@ -5545,18 +5545,18 @@
     <t>left; set off (from); went away (from)</t>
   </si>
   <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>sat (on); sat down (in)</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
     <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>sat (on); sat down (in)</t>
-  </si>
-  <si>
     <t>monk; sage; seer; hermit; silent sage</t>
   </si>
   <si>
@@ -5575,6 +5575,9 @@
     <t>charioteer; driver</t>
   </si>
   <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
@@ -5596,9 +5599,6 @@
     <t>sickness; disease; illness; lit. upset</t>
   </si>
   <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -5623,15 +5623,15 @@
     <t>spoke; said</t>
   </si>
   <si>
+    <t>answered; replied; lit. made distinct</t>
+  </si>
+  <si>
+    <t>gave (to); offered (to)</t>
+  </si>
+  <si>
     <t>stood; stayed; remained</t>
   </si>
   <si>
-    <t>answered; replied; lit. made distinct</t>
-  </si>
-  <si>
-    <t>gave (to); offered (to)</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
@@ -5677,6 +5677,9 @@
     <t>for us; to us</t>
   </si>
   <si>
+    <t>to me; for me</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
   </si>
   <si>
@@ -5698,9 +5701,6 @@
     <t>me (object)</t>
   </si>
   <si>
-    <t>to me; for me</t>
-  </si>
-  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
@@ -5767,6 +5767,9 @@
     <t>you (object)</t>
   </si>
   <si>
+    <t>by you</t>
+  </si>
+  <si>
     <t>for you all; to you all</t>
   </si>
   <si>
@@ -5776,24 +5779,21 @@
     <t>you all; you (royal plural)</t>
   </si>
   <si>
+    <t>of you all; your</t>
+  </si>
+  <si>
     <t>you (subject)</t>
   </si>
   <si>
+    <t>for you; to you</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>your; of you</t>
   </si>
   <si>
-    <t>for you; to you</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>by you</t>
-  </si>
-  <si>
-    <t>of you all; your</t>
-  </si>
-  <si>
     <t>does not know; does not understand; lit. does not completely know</t>
   </si>
   <si>
@@ -5902,27 +5902,30 @@
     <t>speaker (of); who tells (about); who speaks (about); who expresses (about)</t>
   </si>
   <si>
+    <t>speaker; who talks (about)</t>
+  </si>
+  <si>
     <t>giver; donor; bestower</t>
   </si>
   <si>
-    <t>speaker; who talks (about)</t>
-  </si>
-  <si>
     <t>father</t>
   </si>
   <si>
+    <t>mother and father; parents</t>
+  </si>
+  <si>
     <t>brother</t>
   </si>
   <si>
-    <t>mother and father; parents</t>
-  </si>
-  <si>
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
     <t>timely; at the right moment; at a suitable time; at the proper time</t>
   </si>
   <si>
+    <t>before; previously; formerly; in the past</t>
+  </si>
+  <si>
     <t>in future</t>
   </si>
   <si>
@@ -5938,30 +5941,30 @@
     <t>and; both</t>
   </si>
   <si>
+    <t>when?</t>
+  </si>
+  <si>
+    <t>afterwards; later; in the future</t>
+  </si>
+  <si>
+    <t>formerly; previously; in the past</t>
+  </si>
+  <si>
+    <t>now; immediately</t>
+  </si>
+  <si>
+    <t>today; now</t>
+  </si>
+  <si>
     <t>always; at all times</t>
   </si>
   <si>
-    <t>when?</t>
-  </si>
-  <si>
-    <t>afterwards; later; in the future</t>
-  </si>
-  <si>
-    <t>formerly; previously; in the past</t>
-  </si>
-  <si>
-    <t>now; immediately</t>
-  </si>
-  <si>
-    <t>today; now</t>
-  </si>
-  <si>
-    <t>before; previously; formerly; in the past</t>
-  </si>
-  <si>
     <t>respect; honour</t>
   </si>
   <si>
+    <t>ease (for); comfort (for)</t>
+  </si>
+  <si>
     <t>teacher; guru; esteemed person</t>
   </si>
   <si>
@@ -5971,9 +5974,6 @@
     <t>death; Death</t>
   </si>
   <si>
-    <t>ease (for); comfort (for)</t>
-  </si>
-  <si>
     <t>at peace; safe; at rest</t>
   </si>
   <si>
@@ -5992,12 +5992,12 @@
     <t>who understands the world; who knows the world; epithet of the Buddha</t>
   </si>
   <si>
+    <t>warding off; repelling; driving off</t>
+  </si>
+  <si>
     <t>hiding place; lit. dive</t>
   </si>
   <si>
-    <t>warding off; repelling; driving off</t>
-  </si>
-  <si>
     <t>takes a bath; bathes; washes</t>
   </si>
   <si>
@@ -6019,15 +6019,15 @@
     <t>could see; would see</t>
   </si>
   <si>
+    <t>could live; could stay (in)</t>
+  </si>
+  <si>
     <t>would become available (for); would accrue (to); could crop up (for); lit. would arise (for)</t>
   </si>
   <si>
     <t>would be reborn (in); would re-arise (in); lit. could go towards</t>
   </si>
   <si>
-    <t>could live; could stay (in)</t>
-  </si>
-  <si>
     <t>kills; executes</t>
   </si>
   <si>
@@ -6064,6 +6064,12 @@
     <t>direction; cardinal point</t>
   </si>
   <si>
+    <t>sitting; sitting down</t>
+  </si>
+  <si>
+    <t>talk; speech; conversation; discussion</t>
+  </si>
+  <si>
     <t>wisdom; knowledge; understanding; insight; distinctive knowledge</t>
   </si>
   <si>
@@ -6115,12 +6121,6 @@
     <t>ignorance; illusion; not knowing; not understanding</t>
   </si>
   <si>
-    <t>sitting; sitting down</t>
-  </si>
-  <si>
-    <t>talk; speech; conversation; discussion</t>
-  </si>
-  <si>
     <t>(vinaya) higher ordination as monastic</t>
   </si>
   <si>
@@ -6163,54 +6163,54 @@
     <t>having left; having left behind; having abandoned</t>
   </si>
   <si>
+    <t>having seen; having understood; having found out</t>
+  </si>
+  <si>
+    <t>having been</t>
+  </si>
+  <si>
+    <t>having known; having found out; having understood</t>
+  </si>
+  <si>
+    <t>having tasted</t>
+  </si>
+  <si>
+    <t>having heard; having listened (to)</t>
+  </si>
+  <si>
+    <t>having suffused; having pervaded; having filled</t>
+  </si>
+  <si>
+    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
+  </si>
+  <si>
+    <t>having done</t>
+  </si>
+  <si>
+    <t>having bent; having folded</t>
+  </si>
+  <si>
+    <t>having agreed (with); having responded in agreement (to); lit. having listened back</t>
+  </si>
+  <si>
+    <t>having walked; having wandered</t>
+  </si>
+  <si>
+    <t>having taken; having grabbed hold (of); having seized</t>
+  </si>
+  <si>
+    <t>having said; having spoken (about)</t>
+  </si>
+  <si>
+    <t>having approached; having gone (to); having drawn near (to)</t>
+  </si>
+  <si>
+    <t>having seen</t>
+  </si>
+  <si>
     <t>having raised up; having lifted up</t>
   </si>
   <si>
-    <t>having seen; having understood; having found out</t>
-  </si>
-  <si>
-    <t>having been</t>
-  </si>
-  <si>
-    <t>having known; having found out; having understood</t>
-  </si>
-  <si>
-    <t>having tasted</t>
-  </si>
-  <si>
-    <t>having heard; having listened (to)</t>
-  </si>
-  <si>
-    <t>having suffused; having pervaded; having filled</t>
-  </si>
-  <si>
-    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
-  </si>
-  <si>
-    <t>having done</t>
-  </si>
-  <si>
-    <t>having bent; having folded</t>
-  </si>
-  <si>
-    <t>having agreed (with); having responded in agreement (to); lit. having listened back</t>
-  </si>
-  <si>
-    <t>having walked; having wandered</t>
-  </si>
-  <si>
-    <t>having taken; having grabbed hold (of); having seized</t>
-  </si>
-  <si>
-    <t>having said; having spoken (about)</t>
-  </si>
-  <si>
-    <t>having approached; having gone (to); having drawn near (to)</t>
-  </si>
-  <si>
-    <t>having seen</t>
-  </si>
-  <si>
     <t>mother</t>
   </si>
   <si>
@@ -6241,27 +6241,27 @@
     <t>guiding; directing; determining; setting; lit. placing forward</t>
   </si>
   <si>
+    <t>adopting; assuming; according (to); lit. taking</t>
+  </si>
+  <si>
+    <t>leaving behind; giving up; abandoning</t>
+  </si>
+  <si>
+    <t>reaching; attaining; arriving at</t>
+  </si>
+  <si>
+    <t>separating (from); aloof (from)</t>
+  </si>
+  <si>
+    <t>rising (from); emerging (from); getting up (from)</t>
+  </si>
+  <si>
+    <t>sitting down</t>
+  </si>
+  <si>
     <t>attaching; clinging; adhering; sticking</t>
   </si>
   <si>
-    <t>adopting; assuming; according (to); lit. taking</t>
-  </si>
-  <si>
-    <t>leaving behind; giving up; abandoning</t>
-  </si>
-  <si>
-    <t>reaching; attaining; arriving at</t>
-  </si>
-  <si>
-    <t>separating (from); aloof (from)</t>
-  </si>
-  <si>
-    <t>rising (from); emerging (from); getting up (from)</t>
-  </si>
-  <si>
-    <t>sitting down</t>
-  </si>
-  <si>
     <t>stability; constancy; continuity; endurance; persistence; longevity; lit. standing</t>
   </si>
   <si>
@@ -6289,21 +6289,21 @@
     <t>liking; preference; choice; inclination; approval; lit. pleasure</t>
   </si>
   <si>
+    <t>mindfulness; presence; recollection; awareness</t>
+  </si>
+  <si>
+    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
+  </si>
+  <si>
+    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
+  </si>
+  <si>
+    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
+  </si>
+  <si>
     <t>good destination; happy fate</t>
   </si>
   <si>
-    <t>mindfulness; presence; recollection; awareness</t>
-  </si>
-  <si>
-    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
-  </si>
-  <si>
-    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
-  </si>
-  <si>
-    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
-  </si>
-  <si>
     <t>freedom; liberation; release; deliverance</t>
   </si>
   <si>
@@ -6313,48 +6313,48 @@
     <t>wherever; where; when; in which</t>
   </si>
   <si>
+    <t>in that case; in that regard; in this matter; in this connection</t>
+  </si>
+  <si>
+    <t>here; now; in this world</t>
+  </si>
+  <si>
+    <t>in that regard; in that case; regarding that matter</t>
+  </si>
+  <si>
+    <t>somewhere; anywhere</t>
+  </si>
+  <si>
+    <t>in front (of)</t>
+  </si>
+  <si>
+    <t>here; in this regard; in this case</t>
+  </si>
+  <si>
+    <t>on one side</t>
+  </si>
+  <si>
+    <t>everywhere; every place</t>
+  </si>
+  <si>
+    <t>there; in that place</t>
+  </si>
+  <si>
+    <t>above; overhead</t>
+  </si>
+  <si>
+    <t>since; because; due to the fact that; lit. from which</t>
+  </si>
+  <si>
+    <t>therefore; thereupon; thereby; because of that; after that; lit. from that</t>
+  </si>
+  <si>
     <t>here; in this place; in this case; in this regard</t>
   </si>
   <si>
-    <t>in that case; in that regard; in this matter; in this connection</t>
-  </si>
-  <si>
-    <t>here; now; in this world</t>
-  </si>
-  <si>
-    <t>somewhere; anywhere</t>
-  </si>
-  <si>
-    <t>in front (of)</t>
-  </si>
-  <si>
-    <t>here; in this regard; in this case</t>
-  </si>
-  <si>
-    <t>on one side</t>
-  </si>
-  <si>
     <t>from where?; where?</t>
   </si>
   <si>
-    <t>everywhere; every place</t>
-  </si>
-  <si>
-    <t>there; in that place</t>
-  </si>
-  <si>
-    <t>above; overhead</t>
-  </si>
-  <si>
-    <t>since; because; due to the fact that; lit. from which</t>
-  </si>
-  <si>
-    <t>therefore; thereupon; thereby; because of that; after that; lit. from that</t>
-  </si>
-  <si>
-    <t>in that regard; in that case; regarding that matter</t>
-  </si>
-  <si>
     <t>state; property; condition; element</t>
   </si>
   <si>
@@ -6418,292 +6418,292 @@
     <t>being; living being; entity; lit. become</t>
   </si>
   <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort</t>
+  </si>
+  <si>
+    <t>beneficial (for); advantageous (for); lit. for the benefit</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
+  </si>
+  <si>
+    <t>homelessness; homeless state</t>
+  </si>
+  <si>
+    <t>household life; domestic living</t>
+  </si>
+  <si>
+    <t>ease; comfort; happiness; pleasure; contentment</t>
+  </si>
+  <si>
+    <t>welfare (of); good (of); benefit (of); blessing</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>effort; energy; might; power; lit. virility</t>
+  </si>
+  <si>
+    <t>expansion; full development; maturity</t>
+  </si>
+  <si>
+    <t>death; dying</t>
+  </si>
+  <si>
+    <t>part of the body; limb</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; cause; reason; lit. tying down</t>
+  </si>
+  <si>
+    <t>field; plot of land</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>footprint; footstep</t>
+  </si>
+  <si>
+    <t>supporter; supporting family; lit. family</t>
+  </si>
+  <si>
+    <t>jewel; gem; gemstone</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>giving up (of); letting go (of); removal (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>reason; grounds; basis; cause; lit. standing</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>forest; wood; wilds; wilderness; lit. remoteness</t>
+  </si>
+  <si>
+    <t>town; city</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>(Dhamma) power; strength</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
+  </si>
+  <si>
+    <t>livelihood; lifestyle; way of life</t>
+  </si>
+  <si>
+    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
+  </si>
+  <si>
+    <t>good fortune; good luck</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>(of the body) side; rib</t>
+  </si>
+  <si>
+    <t>deathless state; immortality; ambrosia; drink of immortality; epithet of Nibbāna</t>
+  </si>
+  <si>
+    <t>making effort; exerting; striving; trying (to)</t>
+  </si>
+  <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
+    <t>cloth; clothes; robe</t>
+  </si>
+  <si>
+    <t>merit; good deed; spiritual wealth</t>
+  </si>
+  <si>
+    <t>spread; bedspread; coverlet; counterpane</t>
+  </si>
+  <si>
+    <t>escape (from); exit (from); exodus (from); way out (of); lit. going out</t>
+  </si>
+  <si>
+    <t>knowing (of); understanding (of); insight (into)</t>
+  </si>
+  <si>
+    <t>dwelling; building; house; hut</t>
+  </si>
+  <si>
+    <t>house; home; household</t>
+  </si>
+  <si>
+    <t>in order to visit; for the purpose of seeing</t>
+  </si>
+  <si>
+    <t>fruit; nut; berry</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
+  </si>
+  <si>
+    <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>hatred; ill-will; animosity; hostility</t>
+  </si>
+  <si>
+    <t>part; member</t>
+  </si>
+  <si>
+    <t>not deteriorating; not decreasing; non-declining; non-regressing</t>
+  </si>
+  <si>
+    <t>answer; reply</t>
+  </si>
+  <si>
+    <t>giving; offering; charity; generosity</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>dry land; firm ground; terra firma</t>
+  </si>
+  <si>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
+  </si>
+  <si>
+    <t>shelter; refuge; help; lit. going to</t>
+  </si>
+  <si>
+    <t>wood; forest; grove</t>
+  </si>
+  <si>
+    <t>precept; instruction; training rule</t>
+  </si>
+  <si>
+    <t>danger (of; from); peril (of; from)</t>
+  </si>
+  <si>
+    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>eating; taking food</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>good; benefit; merit; good deed; doing good</t>
+  </si>
+  <si>
+    <t>wheel</t>
+  </si>
+  <si>
+    <t>(object of the eye) form; material form; shape; sight; lit. form</t>
+  </si>
+  <si>
+    <t>awareness; consciousness; mind; fifth of the five aggregates; lit. knowing</t>
+  </si>
+  <si>
+    <t>time; period; extent</t>
+  </si>
+  <si>
+    <t>alms; gift</t>
+  </si>
+  <si>
+    <t>seat; chair; lit. sitting</t>
+  </si>
+  <si>
+    <t>insight; realization; spiritual vision; lit. seeing</t>
+  </si>
+  <si>
+    <t>(of a tree) root; base; foot</t>
+  </si>
+  <si>
+    <t>meat; flesh</t>
+  </si>
+  <si>
+    <t>shore; riverbank; beach</t>
+  </si>
+  <si>
+    <t>country; land; kingdom; realm</t>
+  </si>
+  <si>
+    <t>(mental) pleasure; happiness; joy</t>
+  </si>
+  <si>
+    <t>robe; cloth; robe-cloth; lit. rags</t>
+  </si>
+  <si>
+    <t>message; letter; lit. teaching</t>
+  </si>
+  <si>
+    <t>food; boiled rice; lit. shared</t>
+  </si>
+  <si>
+    <t>far side; far shore; bank on the other side; epithet of Nibbāna</t>
+  </si>
+  <si>
+    <t>effort; exertion; lit. to be burned</t>
+  </si>
+  <si>
+    <t>wealth; riches; treasure</t>
+  </si>
+  <si>
+    <t>strength; power; might</t>
+  </si>
+  <si>
+    <t>mark; sign; symbol; indication</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>life; existence</t>
+  </si>
+  <si>
+    <t>nose; lit. smelling</t>
+  </si>
+  <si>
+    <t>few things; few people; small amount</t>
+  </si>
+  <si>
+    <t>long road; highroad; journey</t>
+  </si>
+  <si>
+    <t>regret; shame in wrongdoing; respect for others</t>
+  </si>
+  <si>
+    <t>mind; heart</t>
+  </si>
+  <si>
     <t>life</t>
-  </si>
-  <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort</t>
-  </si>
-  <si>
-    <t>beneficial (for); advantageous (for); lit. for the benefit</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
-  </si>
-  <si>
-    <t>homelessness; homeless state</t>
-  </si>
-  <si>
-    <t>household life; domestic living</t>
-  </si>
-  <si>
-    <t>ease; comfort; happiness; pleasure; contentment</t>
-  </si>
-  <si>
-    <t>welfare (of); good (of); benefit (of); blessing</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>effort; energy; might; power; lit. virility</t>
-  </si>
-  <si>
-    <t>expansion; full development; maturity</t>
-  </si>
-  <si>
-    <t>death; dying</t>
-  </si>
-  <si>
-    <t>part of the body; limb</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; cause; reason; lit. tying down</t>
-  </si>
-  <si>
-    <t>field; plot of land</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>footprint; footstep</t>
-  </si>
-  <si>
-    <t>supporter; supporting family; lit. family</t>
-  </si>
-  <si>
-    <t>jewel; gem; gemstone</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>giving up (of); letting go (of); removal (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>reason; grounds; basis; cause; lit. standing</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
-  </si>
-  <si>
-    <t>forest; wood; wilds; wilderness; lit. remoteness</t>
-  </si>
-  <si>
-    <t>town; city</t>
-  </si>
-  <si>
-    <t>head</t>
-  </si>
-  <si>
-    <t>(Dhamma) power; strength</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
-  </si>
-  <si>
-    <t>deathless state; immortality; ambrosia; drink of immortality; epithet of Nibbāna</t>
-  </si>
-  <si>
-    <t>livelihood; lifestyle; way of life</t>
-  </si>
-  <si>
-    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
-  </si>
-  <si>
-    <t>good fortune; good luck</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>(of the body) side; rib</t>
-  </si>
-  <si>
-    <t>making effort; exerting; striving; trying (to)</t>
-  </si>
-  <si>
-    <t>cloth; clothes; robe</t>
-  </si>
-  <si>
-    <t>merit; good deed; spiritual wealth</t>
-  </si>
-  <si>
-    <t>spread; bedspread; coverlet; counterpane</t>
-  </si>
-  <si>
-    <t>escape (from); exit (from); exodus (from); way out (of); lit. going out</t>
-  </si>
-  <si>
-    <t>knowing (of); understanding (of); insight (into)</t>
-  </si>
-  <si>
-    <t>dwelling; building; house; hut</t>
-  </si>
-  <si>
-    <t>house; home; household</t>
-  </si>
-  <si>
-    <t>in order to visit; for the purpose of seeing</t>
-  </si>
-  <si>
-    <t>fruit; nut; berry</t>
-  </si>
-  <si>
-    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
-  </si>
-  <si>
-    <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>hatred; ill-will; animosity; hostility</t>
-  </si>
-  <si>
-    <t>part; member</t>
-  </si>
-  <si>
-    <t>not deteriorating; not decreasing; non-declining; non-regressing</t>
-  </si>
-  <si>
-    <t>answer; reply</t>
-  </si>
-  <si>
-    <t>giving; offering; charity; generosity</t>
-  </si>
-  <si>
-    <t>ear</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>dry land; firm ground; terra firma</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>shelter; refuge; help; lit. going to</t>
-  </si>
-  <si>
-    <t>wood; forest; grove</t>
-  </si>
-  <si>
-    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
-  </si>
-  <si>
-    <t>precept; instruction; training rule</t>
-  </si>
-  <si>
-    <t>danger (of; from); peril (of; from)</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>eating; taking food</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
-  </si>
-  <si>
-    <t>good; benefit; merit; good deed; doing good</t>
-  </si>
-  <si>
-    <t>wheel</t>
-  </si>
-  <si>
-    <t>(object of the eye) form; material form; shape; sight; lit. form</t>
-  </si>
-  <si>
-    <t>awareness; consciousness; mind; fifth of the five aggregates; lit. knowing</t>
-  </si>
-  <si>
-    <t>time; period; extent</t>
-  </si>
-  <si>
-    <t>alms; gift</t>
-  </si>
-  <si>
-    <t>seat; chair; lit. sitting</t>
-  </si>
-  <si>
-    <t>insight; realization; spiritual vision; lit. seeing</t>
-  </si>
-  <si>
-    <t>(of a tree) root; base; foot</t>
-  </si>
-  <si>
-    <t>meat; flesh</t>
-  </si>
-  <si>
-    <t>shore; riverbank; beach</t>
-  </si>
-  <si>
-    <t>country; land; kingdom; realm</t>
-  </si>
-  <si>
-    <t>(mental) pleasure; happiness; joy</t>
-  </si>
-  <si>
-    <t>robe; cloth; robe-cloth; lit. rags</t>
-  </si>
-  <si>
-    <t>message; letter; lit. teaching</t>
-  </si>
-  <si>
-    <t>food; boiled rice; lit. shared</t>
-  </si>
-  <si>
-    <t>far side; far shore; bank on the other side; epithet of Nibbāna</t>
-  </si>
-  <si>
-    <t>effort; exertion; lit. to be burned</t>
-  </si>
-  <si>
-    <t>wealth; riches; treasure</t>
-  </si>
-  <si>
-    <t>strength; power; might</t>
-  </si>
-  <si>
-    <t>mark; sign; symbol; indication</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>life; existence</t>
-  </si>
-  <si>
-    <t>nose; lit. smelling</t>
-  </si>
-  <si>
-    <t>few things; few people; small amount</t>
-  </si>
-  <si>
-    <t>long road; highroad; journey</t>
-  </si>
-  <si>
-    <t>regret; shame in wrongdoing; respect for others</t>
-  </si>
-  <si>
-    <t>mind; heart</t>
   </si>
   <si>
     <t>meditation; stage of meditation; lit. meditating</t>
@@ -11996,7 +11996,7 @@
         <v>1135</v>
       </c>
       <c r="C270" t="s">
-        <v>1417</v>
+        <v>1409</v>
       </c>
       <c r="D270" t="s">
         <v>1135</v>
@@ -12013,7 +12013,7 @@
         <v>1135</v>
       </c>
       <c r="C271" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D271" t="s">
         <v>1135</v>
@@ -12030,7 +12030,7 @@
         <v>1135</v>
       </c>
       <c r="C272" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D272" t="s">
         <v>1135</v>
@@ -12047,7 +12047,7 @@
         <v>1135</v>
       </c>
       <c r="C273" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D273" t="s">
         <v>1135</v>
@@ -12064,7 +12064,7 @@
         <v>1135</v>
       </c>
       <c r="C274" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D274" t="s">
         <v>1135</v>
@@ -12081,7 +12081,7 @@
         <v>1135</v>
       </c>
       <c r="C275" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D275" t="s">
         <v>1135</v>
@@ -12098,7 +12098,7 @@
         <v>1135</v>
       </c>
       <c r="C276" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D276" t="s">
         <v>1135</v>
@@ -12115,7 +12115,7 @@
         <v>1135</v>
       </c>
       <c r="C277" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D277" t="s">
         <v>1135</v>
@@ -12132,7 +12132,7 @@
         <v>1135</v>
       </c>
       <c r="C278" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D278" t="s">
         <v>1135</v>
@@ -12149,7 +12149,7 @@
         <v>1135</v>
       </c>
       <c r="C279" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D279" t="s">
         <v>1135</v>
@@ -12166,7 +12166,7 @@
         <v>1135</v>
       </c>
       <c r="C280" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D280" t="s">
         <v>1135</v>
@@ -12183,7 +12183,7 @@
         <v>1135</v>
       </c>
       <c r="C281" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D281" t="s">
         <v>1135</v>
@@ -12200,7 +12200,7 @@
         <v>1135</v>
       </c>
       <c r="C282" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D282" t="s">
         <v>1135</v>
@@ -12217,7 +12217,7 @@
         <v>1135</v>
       </c>
       <c r="C283" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D283" t="s">
         <v>1135</v>
@@ -12234,7 +12234,7 @@
         <v>1135</v>
       </c>
       <c r="C284" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D284" t="s">
         <v>1135</v>
@@ -12251,7 +12251,7 @@
         <v>1135</v>
       </c>
       <c r="C285" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D285" t="s">
         <v>1135</v>
@@ -12268,7 +12268,7 @@
         <v>1135</v>
       </c>
       <c r="C286" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D286" t="s">
         <v>1135</v>
@@ -12285,7 +12285,7 @@
         <v>1135</v>
       </c>
       <c r="C287" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D287" t="s">
         <v>1135</v>
@@ -12302,7 +12302,7 @@
         <v>1135</v>
       </c>
       <c r="C288" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D288" t="s">
         <v>1135</v>
@@ -12319,7 +12319,7 @@
         <v>1135</v>
       </c>
       <c r="C289" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D289" t="s">
         <v>1135</v>
@@ -12336,7 +12336,7 @@
         <v>1135</v>
       </c>
       <c r="C290" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D290" t="s">
         <v>1135</v>
@@ -12353,7 +12353,7 @@
         <v>1135</v>
       </c>
       <c r="C291" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D291" t="s">
         <v>1135</v>
@@ -12370,7 +12370,7 @@
         <v>1135</v>
       </c>
       <c r="C292" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D292" t="s">
         <v>1135</v>
@@ -12387,7 +12387,7 @@
         <v>1135</v>
       </c>
       <c r="C293" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D293" t="s">
         <v>1135</v>
@@ -12404,7 +12404,7 @@
         <v>1135</v>
       </c>
       <c r="C294" t="s">
-        <v>1416</v>
+        <v>1440</v>
       </c>
       <c r="D294" t="s">
         <v>1135</v>
@@ -15719,7 +15719,7 @@
         <v>1133</v>
       </c>
       <c r="C489" t="s">
-        <v>1635</v>
+        <v>1581</v>
       </c>
       <c r="D489" t="s">
         <v>2272</v>
@@ -15736,7 +15736,7 @@
         <v>1133</v>
       </c>
       <c r="C490" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D490" t="s">
         <v>2272</v>
@@ -15753,7 +15753,7 @@
         <v>1133</v>
       </c>
       <c r="C491" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D491" t="s">
         <v>2272</v>
@@ -15770,7 +15770,7 @@
         <v>1133</v>
       </c>
       <c r="C492" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="D492" t="s">
         <v>2272</v>
@@ -15787,7 +15787,7 @@
         <v>1133</v>
       </c>
       <c r="C493" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="D493" t="s">
         <v>2272</v>
@@ -15804,7 +15804,7 @@
         <v>1133</v>
       </c>
       <c r="C494" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D494" t="s">
         <v>2272</v>
@@ -15821,7 +15821,7 @@
         <v>1133</v>
       </c>
       <c r="C495" t="s">
-        <v>1585</v>
+        <v>1640</v>
       </c>
       <c r="D495" t="s">
         <v>2272</v>
@@ -16671,7 +16671,7 @@
         <v>1133</v>
       </c>
       <c r="C545" t="s">
-        <v>1690</v>
+        <v>1541</v>
       </c>
       <c r="D545" t="s">
         <v>2272</v>
@@ -16688,7 +16688,7 @@
         <v>1133</v>
       </c>
       <c r="C546" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="D546" t="s">
         <v>2272</v>
@@ -16705,7 +16705,7 @@
         <v>1133</v>
       </c>
       <c r="C547" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D547" t="s">
         <v>2272</v>
@@ -16722,7 +16722,7 @@
         <v>1133</v>
       </c>
       <c r="C548" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="D548" t="s">
         <v>2272</v>
@@ -16739,7 +16739,7 @@
         <v>1133</v>
       </c>
       <c r="C549" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D549" t="s">
         <v>2272</v>
@@ -16756,7 +16756,7 @@
         <v>1133</v>
       </c>
       <c r="C550" t="s">
-        <v>1544</v>
+        <v>1694</v>
       </c>
       <c r="D550" t="s">
         <v>2272</v>
@@ -17076,7 +17076,7 @@
         <v>572</v>
       </c>
       <c r="B569" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="C569" t="s">
         <v>1713</v>
@@ -17280,7 +17280,7 @@
         <v>584</v>
       </c>
       <c r="B581" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="C581" t="s">
         <v>1725</v>
@@ -22451,7 +22451,7 @@
         <v>1143</v>
       </c>
       <c r="C885" t="s">
-        <v>1508</v>
+        <v>2028</v>
       </c>
       <c r="D885" t="s">
         <v>2294</v>
@@ -22468,7 +22468,7 @@
         <v>1143</v>
       </c>
       <c r="C886" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="D886" t="s">
         <v>2294</v>
@@ -22485,7 +22485,7 @@
         <v>1143</v>
       </c>
       <c r="C887" t="s">
-        <v>2029</v>
+        <v>1507</v>
       </c>
       <c r="D887" t="s">
         <v>2294</v>
@@ -22995,7 +22995,7 @@
         <v>1140</v>
       </c>
       <c r="C917" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="D917" t="s">
         <v>1140</v>
@@ -23012,7 +23012,7 @@
         <v>1140</v>
       </c>
       <c r="C918" t="s">
-        <v>2057</v>
+        <v>2059</v>
       </c>
       <c r="D918" t="s">
         <v>1140</v>
@@ -23046,7 +23046,7 @@
         <v>1140</v>
       </c>
       <c r="C920" t="s">
-        <v>2061</v>
+        <v>2056</v>
       </c>
       <c r="D920" t="s">
         <v>1140</v>
@@ -23063,7 +23063,7 @@
         <v>1140</v>
       </c>
       <c r="C921" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="D921" t="s">
         <v>1140</v>
@@ -23896,7 +23896,7 @@
         <v>1135</v>
       </c>
       <c r="C970" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="D970" t="s">
         <v>1135</v>
@@ -23913,7 +23913,7 @@
         <v>1135</v>
       </c>
       <c r="C971" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="D971" t="s">
         <v>1135</v>
@@ -26548,7 +26548,7 @@
         <v>1148</v>
       </c>
       <c r="C1126" t="s">
-        <v>2134</v>
+        <v>2229</v>
       </c>
       <c r="D1126" t="s">
         <v>2331</v>

--- a/pali-class/vocab/vocab-class23.xlsx
+++ b/pali-class/vocab/vocab-class23.xlsx
@@ -325,9 +325,6 @@
     <t>appamāṇa</t>
   </si>
   <si>
-    <t>maha 2</t>
-  </si>
-  <si>
     <t>vipula 1</t>
   </si>
   <si>
@@ -649,12 +646,12 @@
     <t>aṭṭhama 1</t>
   </si>
   <si>
+    <t>dasama 1</t>
+  </si>
+  <si>
     <t>navama</t>
   </si>
   <si>
-    <t>dasama 1</t>
-  </si>
-  <si>
     <t>pañcama</t>
   </si>
   <si>
@@ -2947,6 +2944,9 @@
     <t>kuto 1</t>
   </si>
   <si>
+    <t>kuto 3</t>
+  </si>
+  <si>
     <t>dhātu 1</t>
   </si>
   <si>
@@ -2992,12 +2992,12 @@
     <t>atthāya 2</t>
   </si>
   <si>
+    <t>piṇḍāya</t>
+  </si>
+  <si>
     <t>atthāya 1</t>
   </si>
   <si>
-    <t>piṇḍāya</t>
-  </si>
-  <si>
     <t>adhikaraṇa 1</t>
   </si>
   <si>
@@ -3757,9 +3757,6 @@
     <t>immeasurable; unlimited; limitless; boundless</t>
   </si>
   <si>
-    <t>great; venerable; honourable; respected</t>
-  </si>
-  <si>
     <t>vast; extensive; expansive; massive</t>
   </si>
   <si>
@@ -4081,12 +4078,12 @@
     <t>eighth (8th)</t>
   </si>
   <si>
+    <t>tenth (10th)</t>
+  </si>
+  <si>
     <t>ninth (9th)</t>
   </si>
   <si>
-    <t>tenth (10th)</t>
-  </si>
-  <si>
     <t>fifth (5th)</t>
   </si>
   <si>
@@ -6355,6 +6352,9 @@
     <t>from where?; where?</t>
   </si>
   <si>
+    <t>let alone; not to mention; what to say of; lit. from where</t>
+  </si>
+  <si>
     <t>state; property; condition; element</t>
   </si>
   <si>
@@ -6397,10 +6397,10 @@
     <t>fortunate (for); beneficial (for); useful (for); lit. for the sake</t>
   </si>
   <si>
+    <t>for alms; to collect alms food</t>
+  </si>
+  <si>
     <t>for the purpose (of); for the sake (of); for the benefit (of)</t>
-  </si>
-  <si>
-    <t>for alms; to collect alms food</t>
   </si>
   <si>
     <t>(vinaya) issue; legal procedure; disciplinary proceedings; lit. law-suit</t>
@@ -9902,13 +9902,13 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C147" t="s">
         <v>1294</v>
       </c>
       <c r="D147" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="E147" t="s">
         <v>2333</v>
@@ -9919,13 +9919,13 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C148" t="s">
         <v>1295</v>
       </c>
       <c r="D148" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="E148" t="s">
         <v>2333</v>
@@ -10106,7 +10106,7 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C159" t="s">
         <v>1306</v>
@@ -10123,7 +10123,7 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="C160" t="s">
         <v>1307</v>
@@ -10633,13 +10633,13 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C190" t="s">
         <v>1337</v>
       </c>
       <c r="D190" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="E190" t="s">
         <v>2333</v>
@@ -10673,7 +10673,7 @@
         <v>1339</v>
       </c>
       <c r="D192" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="E192" t="s">
         <v>2333</v>
@@ -10690,7 +10690,7 @@
         <v>1340</v>
       </c>
       <c r="D193" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="E193" t="s">
         <v>2333</v>
@@ -10707,7 +10707,7 @@
         <v>1341</v>
       </c>
       <c r="D194" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="E194" t="s">
         <v>2333</v>
@@ -10718,13 +10718,13 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="C195" t="s">
         <v>1342</v>
       </c>
       <c r="D195" t="s">
-        <v>2277</v>
+        <v>1135</v>
       </c>
       <c r="E195" t="s">
         <v>2333</v>
@@ -10786,13 +10786,13 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="C199" t="s">
         <v>1346</v>
       </c>
       <c r="D199" t="s">
-        <v>1135</v>
+        <v>2278</v>
       </c>
       <c r="E199" t="s">
         <v>2333</v>
@@ -10860,7 +10860,7 @@
         <v>1350</v>
       </c>
       <c r="D203" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="E203" t="s">
         <v>2333</v>
@@ -10894,7 +10894,7 @@
         <v>1352</v>
       </c>
       <c r="D205" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="E205" t="s">
         <v>2333</v>
@@ -10905,16 +10905,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="C206" t="s">
         <v>1353</v>
       </c>
       <c r="D206" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="E206" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -11058,13 +11058,13 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C215" t="s">
         <v>1362</v>
       </c>
       <c r="D215" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="E215" t="s">
         <v>2334</v>
@@ -11166,7 +11166,7 @@
         <v>1368</v>
       </c>
       <c r="D221" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="E221" t="s">
         <v>2334</v>
@@ -11200,7 +11200,7 @@
         <v>1370</v>
       </c>
       <c r="D223" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="E223" t="s">
         <v>2334</v>
@@ -11217,7 +11217,7 @@
         <v>1371</v>
       </c>
       <c r="D224" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="E224" t="s">
         <v>2334</v>
@@ -11234,7 +11234,7 @@
         <v>1372</v>
       </c>
       <c r="D225" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="E225" t="s">
         <v>2334</v>
@@ -11251,7 +11251,7 @@
         <v>1373</v>
       </c>
       <c r="D226" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="E226" t="s">
         <v>2334</v>
@@ -11268,7 +11268,7 @@
         <v>1374</v>
       </c>
       <c r="D227" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="E227" t="s">
         <v>2334</v>
@@ -11279,16 +11279,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C228" t="s">
         <v>1375</v>
       </c>
       <c r="D228" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="E228" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -11636,13 +11636,13 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="C249" t="s">
         <v>1396</v>
       </c>
       <c r="D249" t="s">
-        <v>2289</v>
+        <v>1135</v>
       </c>
       <c r="E249" t="s">
         <v>2335</v>
@@ -11979,7 +11979,7 @@
         <v>1135</v>
       </c>
       <c r="C269" t="s">
-        <v>1416</v>
+        <v>1408</v>
       </c>
       <c r="D269" t="s">
         <v>1135</v>
@@ -11996,7 +11996,7 @@
         <v>1135</v>
       </c>
       <c r="C270" t="s">
-        <v>1409</v>
+        <v>1416</v>
       </c>
       <c r="D270" t="s">
         <v>1135</v>
@@ -12435,13 +12435,13 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="C296" t="s">
         <v>1442</v>
       </c>
       <c r="D296" t="s">
-        <v>1135</v>
+        <v>2270</v>
       </c>
       <c r="E296" t="s">
         <v>2335</v>
@@ -12469,16 +12469,16 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="C298" t="s">
         <v>1444</v>
       </c>
       <c r="D298" t="s">
-        <v>2270</v>
+        <v>2273</v>
       </c>
       <c r="E298" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -12503,13 +12503,13 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>1134</v>
+        <v>1139</v>
       </c>
       <c r="C300" t="s">
         <v>1446</v>
       </c>
       <c r="D300" t="s">
-        <v>2273</v>
+        <v>2290</v>
       </c>
       <c r="E300" t="s">
         <v>2336</v>
@@ -12690,13 +12690,13 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C311" t="s">
         <v>1457</v>
       </c>
       <c r="D311" t="s">
-        <v>2290</v>
+        <v>1140</v>
       </c>
       <c r="E311" t="s">
         <v>2336</v>
@@ -12843,13 +12843,13 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C320" t="s">
         <v>1466</v>
       </c>
       <c r="D320" t="s">
-        <v>1140</v>
+        <v>2289</v>
       </c>
       <c r="E320" t="s">
         <v>2336</v>
@@ -12860,13 +12860,13 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="C321" t="s">
         <v>1467</v>
       </c>
       <c r="D321" t="s">
-        <v>2289</v>
+        <v>2291</v>
       </c>
       <c r="E321" t="s">
         <v>2336</v>
@@ -12877,13 +12877,13 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="C322" t="s">
         <v>1468</v>
       </c>
       <c r="D322" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="E322" t="s">
         <v>2336</v>
@@ -13268,13 +13268,13 @@
         <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="C345" t="s">
         <v>1491</v>
       </c>
       <c r="D345" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="E345" t="s">
         <v>2336</v>
@@ -13285,13 +13285,13 @@
         <v>349</v>
       </c>
       <c r="B346" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C346" t="s">
         <v>1492</v>
       </c>
       <c r="D346" t="s">
-        <v>2293</v>
+        <v>1142</v>
       </c>
       <c r="E346" t="s">
         <v>2336</v>
@@ -13302,13 +13302,13 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C347" t="s">
         <v>1493</v>
       </c>
       <c r="D347" t="s">
-        <v>1142</v>
+        <v>2294</v>
       </c>
       <c r="E347" t="s">
         <v>2336</v>
@@ -13319,16 +13319,16 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="C348" t="s">
         <v>1494</v>
       </c>
       <c r="D348" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="E348" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -13342,7 +13342,7 @@
         <v>1495</v>
       </c>
       <c r="D349" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="E349" t="s">
         <v>2337</v>
@@ -13444,7 +13444,7 @@
         <v>1501</v>
       </c>
       <c r="D355" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="E355" t="s">
         <v>2337</v>
@@ -13461,10 +13461,10 @@
         <v>1502</v>
       </c>
       <c r="D356" t="s">
-        <v>2297</v>
+        <v>2272</v>
       </c>
       <c r="E356" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -15702,7 +15702,7 @@
         <v>1133</v>
       </c>
       <c r="C488" t="s">
-        <v>1634</v>
+        <v>1580</v>
       </c>
       <c r="D488" t="s">
         <v>2272</v>
@@ -15719,7 +15719,7 @@
         <v>1133</v>
       </c>
       <c r="C489" t="s">
-        <v>1581</v>
+        <v>1634</v>
       </c>
       <c r="D489" t="s">
         <v>2272</v>
@@ -16654,7 +16654,7 @@
         <v>1133</v>
       </c>
       <c r="C544" t="s">
-        <v>1689</v>
+        <v>1540</v>
       </c>
       <c r="D544" t="s">
         <v>2272</v>
@@ -16671,7 +16671,7 @@
         <v>1133</v>
       </c>
       <c r="C545" t="s">
-        <v>1541</v>
+        <v>1689</v>
       </c>
       <c r="D545" t="s">
         <v>2272</v>
@@ -16895,7 +16895,7 @@
         <v>1702</v>
       </c>
       <c r="D558" t="s">
-        <v>2272</v>
+        <v>2298</v>
       </c>
       <c r="E558" t="s">
         <v>2338</v>
@@ -16929,10 +16929,10 @@
         <v>1704</v>
       </c>
       <c r="D560" t="s">
-        <v>2298</v>
+        <v>2272</v>
       </c>
       <c r="E560" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -16974,13 +16974,13 @@
         <v>566</v>
       </c>
       <c r="B563" t="s">
-        <v>1133</v>
+        <v>1138</v>
       </c>
       <c r="C563" t="s">
         <v>1707</v>
       </c>
       <c r="D563" t="s">
-        <v>2272</v>
+        <v>2289</v>
       </c>
       <c r="E563" t="s">
         <v>2339</v>
@@ -17263,7 +17263,7 @@
         <v>583</v>
       </c>
       <c r="B580" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="C580" t="s">
         <v>1724</v>
@@ -17280,7 +17280,7 @@
         <v>584</v>
       </c>
       <c r="B581" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="C581" t="s">
         <v>1725</v>
@@ -18147,7 +18147,7 @@
         <v>635</v>
       </c>
       <c r="B632" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="C632" t="s">
         <v>1776</v>
@@ -18164,7 +18164,7 @@
         <v>636</v>
       </c>
       <c r="B633" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="C633" t="s">
         <v>1777</v>
@@ -18187,7 +18187,7 @@
         <v>1778</v>
       </c>
       <c r="D634" t="s">
-        <v>2289</v>
+        <v>2292</v>
       </c>
       <c r="E634" t="s">
         <v>2339</v>
@@ -18340,7 +18340,7 @@
         <v>1787</v>
       </c>
       <c r="D643" t="s">
-        <v>2292</v>
+        <v>2299</v>
       </c>
       <c r="E643" t="s">
         <v>2339</v>
@@ -18351,7 +18351,7 @@
         <v>647</v>
       </c>
       <c r="B644" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="C644" t="s">
         <v>1788</v>
@@ -18368,13 +18368,13 @@
         <v>648</v>
       </c>
       <c r="B645" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="C645" t="s">
         <v>1789</v>
       </c>
       <c r="D645" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="E645" t="s">
         <v>2339</v>
@@ -18391,7 +18391,7 @@
         <v>1790</v>
       </c>
       <c r="D646" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="E646" t="s">
         <v>2339</v>
@@ -18436,7 +18436,7 @@
         <v>652</v>
       </c>
       <c r="B649" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="C649" t="s">
         <v>1793</v>
@@ -18453,7 +18453,7 @@
         <v>653</v>
       </c>
       <c r="B650" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="C650" t="s">
         <v>1794</v>
@@ -18626,7 +18626,7 @@
         <v>1138</v>
       </c>
       <c r="C660" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="D660" t="s">
         <v>2301</v>
@@ -18643,7 +18643,7 @@
         <v>1138</v>
       </c>
       <c r="C661" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="D661" t="s">
         <v>2301</v>
@@ -18657,16 +18657,16 @@
         <v>665</v>
       </c>
       <c r="B662" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="C662" t="s">
         <v>1805</v>
       </c>
       <c r="D662" t="s">
-        <v>2301</v>
+        <v>2272</v>
       </c>
       <c r="E662" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="663" spans="1:5">
@@ -18691,13 +18691,13 @@
         <v>667</v>
       </c>
       <c r="B664" t="s">
-        <v>1133</v>
+        <v>1138</v>
       </c>
       <c r="C664" t="s">
         <v>1807</v>
       </c>
       <c r="D664" t="s">
-        <v>2272</v>
+        <v>2289</v>
       </c>
       <c r="E664" t="s">
         <v>2340</v>
@@ -18969,7 +18969,7 @@
         <v>1823</v>
       </c>
       <c r="D680" t="s">
-        <v>2289</v>
+        <v>2302</v>
       </c>
       <c r="E680" t="s">
         <v>2340</v>
@@ -19014,7 +19014,7 @@
         <v>686</v>
       </c>
       <c r="B683" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="C683" t="s">
         <v>1826</v>
@@ -19031,7 +19031,7 @@
         <v>687</v>
       </c>
       <c r="B684" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="C684" t="s">
         <v>1827</v>
@@ -19082,13 +19082,13 @@
         <v>690</v>
       </c>
       <c r="B687" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="C687" t="s">
         <v>1830</v>
       </c>
       <c r="D687" t="s">
-        <v>2302</v>
+        <v>2291</v>
       </c>
       <c r="E687" t="s">
         <v>2340</v>
@@ -19105,7 +19105,7 @@
         <v>1831</v>
       </c>
       <c r="D688" t="s">
-        <v>2291</v>
+        <v>2303</v>
       </c>
       <c r="E688" t="s">
         <v>2340</v>
@@ -19133,13 +19133,13 @@
         <v>693</v>
       </c>
       <c r="B690" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="C690" t="s">
         <v>1833</v>
       </c>
       <c r="D690" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="E690" t="s">
         <v>2340</v>
@@ -19167,7 +19167,7 @@
         <v>695</v>
       </c>
       <c r="B692" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="C692" t="s">
         <v>1835</v>
@@ -19201,13 +19201,13 @@
         <v>697</v>
       </c>
       <c r="B694" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="C694" t="s">
         <v>1837</v>
       </c>
       <c r="D694" t="s">
-        <v>2304</v>
+        <v>2293</v>
       </c>
       <c r="E694" t="s">
         <v>2340</v>
@@ -19354,13 +19354,13 @@
         <v>706</v>
       </c>
       <c r="B703" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="C703" t="s">
         <v>1846</v>
       </c>
       <c r="D703" t="s">
-        <v>2293</v>
+        <v>2305</v>
       </c>
       <c r="E703" t="s">
         <v>2340</v>
@@ -19592,13 +19592,13 @@
         <v>720</v>
       </c>
       <c r="B717" t="s">
-        <v>1133</v>
+        <v>1138</v>
       </c>
       <c r="C717" t="s">
         <v>1860</v>
       </c>
       <c r="D717" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="E717" t="s">
         <v>2340</v>
@@ -19609,7 +19609,7 @@
         <v>721</v>
       </c>
       <c r="B718" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="C718" t="s">
         <v>1861</v>
@@ -19626,7 +19626,7 @@
         <v>722</v>
       </c>
       <c r="B719" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="C719" t="s">
         <v>1862</v>
@@ -19649,7 +19649,7 @@
         <v>1863</v>
       </c>
       <c r="D720" t="s">
-        <v>2306</v>
+        <v>2300</v>
       </c>
       <c r="E720" t="s">
         <v>2340</v>
@@ -19694,13 +19694,13 @@
         <v>726</v>
       </c>
       <c r="B723" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="C723" t="s">
         <v>1866</v>
       </c>
       <c r="D723" t="s">
-        <v>2300</v>
+        <v>2307</v>
       </c>
       <c r="E723" t="s">
         <v>2340</v>
@@ -19785,7 +19785,7 @@
         <v>1871</v>
       </c>
       <c r="D728" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="E728" t="s">
         <v>2340</v>
@@ -19813,16 +19813,16 @@
         <v>733</v>
       </c>
       <c r="B730" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="C730" t="s">
         <v>1873</v>
       </c>
       <c r="D730" t="s">
-        <v>2308</v>
+        <v>2272</v>
       </c>
       <c r="E730" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="731" spans="1:5">
@@ -19966,13 +19966,13 @@
         <v>742</v>
       </c>
       <c r="B739" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="C739" t="s">
         <v>1882</v>
       </c>
       <c r="D739" t="s">
-        <v>2272</v>
+        <v>2309</v>
       </c>
       <c r="E739" t="s">
         <v>2341</v>
@@ -20170,13 +20170,13 @@
         <v>754</v>
       </c>
       <c r="B751" t="s">
-        <v>1130</v>
+        <v>1138</v>
       </c>
       <c r="C751" t="s">
         <v>1894</v>
       </c>
       <c r="D751" t="s">
-        <v>2309</v>
+        <v>2289</v>
       </c>
       <c r="E751" t="s">
         <v>2341</v>
@@ -20193,7 +20193,7 @@
         <v>1895</v>
       </c>
       <c r="D752" t="s">
-        <v>2289</v>
+        <v>2292</v>
       </c>
       <c r="E752" t="s">
         <v>2341</v>
@@ -20204,13 +20204,13 @@
         <v>756</v>
       </c>
       <c r="B753" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="C753" t="s">
         <v>1896</v>
       </c>
       <c r="D753" t="s">
-        <v>2292</v>
+        <v>1135</v>
       </c>
       <c r="E753" t="s">
         <v>2341</v>
@@ -20323,13 +20323,13 @@
         <v>763</v>
       </c>
       <c r="B760" t="s">
-        <v>1135</v>
+        <v>1145</v>
       </c>
       <c r="C760" t="s">
         <v>1903</v>
       </c>
       <c r="D760" t="s">
-        <v>1135</v>
+        <v>2310</v>
       </c>
       <c r="E760" t="s">
         <v>2341</v>
@@ -20408,13 +20408,13 @@
         <v>768</v>
       </c>
       <c r="B765" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="C765" t="s">
         <v>1908</v>
       </c>
       <c r="D765" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="E765" t="s">
         <v>2341</v>
@@ -20425,13 +20425,13 @@
         <v>769</v>
       </c>
       <c r="B766" t="s">
-        <v>1138</v>
+        <v>1145</v>
       </c>
       <c r="C766" t="s">
         <v>1909</v>
       </c>
       <c r="D766" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="E766" t="s">
         <v>2341</v>
@@ -20476,13 +20476,13 @@
         <v>772</v>
       </c>
       <c r="B769" t="s">
-        <v>1145</v>
+        <v>1130</v>
       </c>
       <c r="C769" t="s">
         <v>1912</v>
       </c>
       <c r="D769" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="E769" t="s">
         <v>2341</v>
@@ -20697,13 +20697,13 @@
         <v>785</v>
       </c>
       <c r="B782" t="s">
-        <v>1130</v>
+        <v>1138</v>
       </c>
       <c r="C782" t="s">
         <v>1925</v>
       </c>
       <c r="D782" t="s">
-        <v>2313</v>
+        <v>2301</v>
       </c>
       <c r="E782" t="s">
         <v>2341</v>
@@ -20714,13 +20714,13 @@
         <v>786</v>
       </c>
       <c r="B783" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="C783" t="s">
         <v>1926</v>
       </c>
       <c r="D783" t="s">
-        <v>2301</v>
+        <v>2279</v>
       </c>
       <c r="E783" t="s">
         <v>2341</v>
@@ -20901,13 +20901,13 @@
         <v>797</v>
       </c>
       <c r="B794" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C794" t="s">
         <v>1937</v>
       </c>
       <c r="D794" t="s">
-        <v>2279</v>
+        <v>2314</v>
       </c>
       <c r="E794" t="s">
         <v>2341</v>
@@ -21060,10 +21060,10 @@
         <v>1946</v>
       </c>
       <c r="D803" t="s">
-        <v>2314</v>
+        <v>2272</v>
       </c>
       <c r="E803" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="804" spans="1:5">
@@ -21088,13 +21088,13 @@
         <v>808</v>
       </c>
       <c r="B805" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C805" t="s">
         <v>1948</v>
       </c>
       <c r="D805" t="s">
-        <v>2272</v>
+        <v>2315</v>
       </c>
       <c r="E805" t="s">
         <v>2342</v>
@@ -21190,13 +21190,13 @@
         <v>814</v>
       </c>
       <c r="B811" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C811" t="s">
         <v>1954</v>
       </c>
       <c r="D811" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="E811" t="s">
         <v>2342</v>
@@ -21264,7 +21264,7 @@
         <v>1958</v>
       </c>
       <c r="D815" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="E815" t="s">
         <v>2342</v>
@@ -21349,7 +21349,7 @@
         <v>1963</v>
       </c>
       <c r="D820" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="E820" t="s">
         <v>2342</v>
@@ -21394,13 +21394,13 @@
         <v>826</v>
       </c>
       <c r="B823" t="s">
-        <v>1133</v>
+        <v>1138</v>
       </c>
       <c r="C823" t="s">
         <v>1966</v>
       </c>
       <c r="D823" t="s">
-        <v>2318</v>
+        <v>2289</v>
       </c>
       <c r="E823" t="s">
         <v>2342</v>
@@ -21411,13 +21411,13 @@
         <v>827</v>
       </c>
       <c r="B824" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="C824" t="s">
         <v>1967</v>
       </c>
       <c r="D824" t="s">
-        <v>2289</v>
+        <v>1135</v>
       </c>
       <c r="E824" t="s">
         <v>2342</v>
@@ -21632,13 +21632,13 @@
         <v>840</v>
       </c>
       <c r="B837" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C837" t="s">
         <v>1980</v>
       </c>
       <c r="D837" t="s">
-        <v>1135</v>
+        <v>2319</v>
       </c>
       <c r="E837" t="s">
         <v>2342</v>
@@ -21717,13 +21717,13 @@
         <v>845</v>
       </c>
       <c r="B842" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C842" t="s">
         <v>1985</v>
       </c>
       <c r="D842" t="s">
-        <v>2319</v>
+        <v>2279</v>
       </c>
       <c r="E842" t="s">
         <v>2342</v>
@@ -21740,7 +21740,7 @@
         <v>1986</v>
       </c>
       <c r="D843" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="E843" t="s">
         <v>2342</v>
@@ -21785,13 +21785,13 @@
         <v>849</v>
       </c>
       <c r="B846" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C846" t="s">
         <v>1989</v>
       </c>
       <c r="D846" t="s">
-        <v>2280</v>
+        <v>2320</v>
       </c>
       <c r="E846" t="s">
         <v>2342</v>
@@ -21825,10 +21825,10 @@
         <v>1991</v>
       </c>
       <c r="D848" t="s">
-        <v>2320</v>
+        <v>2272</v>
       </c>
       <c r="E848" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="849" spans="1:5">
@@ -21853,13 +21853,13 @@
         <v>853</v>
       </c>
       <c r="B850" t="s">
-        <v>1133</v>
+        <v>1138</v>
       </c>
       <c r="C850" t="s">
         <v>1993</v>
       </c>
       <c r="D850" t="s">
-        <v>2272</v>
+        <v>2289</v>
       </c>
       <c r="E850" t="s">
         <v>2343</v>
@@ -21870,13 +21870,13 @@
         <v>854</v>
       </c>
       <c r="B851" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="C851" t="s">
         <v>1994</v>
       </c>
       <c r="D851" t="s">
-        <v>2289</v>
+        <v>2321</v>
       </c>
       <c r="E851" t="s">
         <v>2343</v>
@@ -22023,13 +22023,13 @@
         <v>863</v>
       </c>
       <c r="B860" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="C860" t="s">
         <v>2003</v>
       </c>
       <c r="D860" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="E860" t="s">
         <v>2343</v>
@@ -22040,13 +22040,13 @@
         <v>864</v>
       </c>
       <c r="B861" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="C861" t="s">
         <v>2004</v>
       </c>
       <c r="D861" t="s">
-        <v>2322</v>
+        <v>2306</v>
       </c>
       <c r="E861" t="s">
         <v>2343</v>
@@ -22063,7 +22063,7 @@
         <v>2005</v>
       </c>
       <c r="D862" t="s">
-        <v>2306</v>
+        <v>2323</v>
       </c>
       <c r="E862" t="s">
         <v>2343</v>
@@ -22097,7 +22097,7 @@
         <v>2007</v>
       </c>
       <c r="D864" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="E864" t="s">
         <v>2343</v>
@@ -22108,13 +22108,13 @@
         <v>868</v>
       </c>
       <c r="B865" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C865" t="s">
         <v>2008</v>
       </c>
       <c r="D865" t="s">
-        <v>2324</v>
+        <v>2294</v>
       </c>
       <c r="E865" t="s">
         <v>2343</v>
@@ -22468,7 +22468,7 @@
         <v>1143</v>
       </c>
       <c r="C886" t="s">
-        <v>2029</v>
+        <v>1506</v>
       </c>
       <c r="D886" t="s">
         <v>2294</v>
@@ -22485,7 +22485,7 @@
         <v>1143</v>
       </c>
       <c r="C887" t="s">
-        <v>1507</v>
+        <v>2029</v>
       </c>
       <c r="D887" t="s">
         <v>2294</v>
@@ -22720,16 +22720,16 @@
         <v>904</v>
       </c>
       <c r="B901" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="C901" t="s">
         <v>2043</v>
       </c>
       <c r="D901" t="s">
-        <v>2294</v>
+        <v>2272</v>
       </c>
       <c r="E901" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="902" spans="1:5">
@@ -22754,13 +22754,13 @@
         <v>906</v>
       </c>
       <c r="B903" t="s">
-        <v>1133</v>
+        <v>1140</v>
       </c>
       <c r="C903" t="s">
         <v>2045</v>
       </c>
       <c r="D903" t="s">
-        <v>2272</v>
+        <v>1140</v>
       </c>
       <c r="E903" t="s">
         <v>2344</v>
@@ -22978,7 +22978,7 @@
         <v>1140</v>
       </c>
       <c r="C916" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="D916" t="s">
         <v>1140</v>
@@ -22995,7 +22995,7 @@
         <v>1140</v>
       </c>
       <c r="C917" t="s">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="D917" t="s">
         <v>1140</v>
@@ -23029,7 +23029,7 @@
         <v>1140</v>
       </c>
       <c r="C919" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
       <c r="D919" t="s">
         <v>1140</v>
@@ -23046,7 +23046,7 @@
         <v>1140</v>
       </c>
       <c r="C920" t="s">
-        <v>2056</v>
+        <v>2060</v>
       </c>
       <c r="D920" t="s">
         <v>1140</v>
@@ -23111,13 +23111,13 @@
         <v>927</v>
       </c>
       <c r="B924" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="C924" t="s">
         <v>2064</v>
       </c>
       <c r="D924" t="s">
-        <v>1140</v>
+        <v>2325</v>
       </c>
       <c r="E924" t="s">
         <v>2344</v>
@@ -23145,13 +23145,13 @@
         <v>929</v>
       </c>
       <c r="B926" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="C926" t="s">
         <v>2066</v>
       </c>
       <c r="D926" t="s">
-        <v>2325</v>
+        <v>1147</v>
       </c>
       <c r="E926" t="s">
         <v>2344</v>
@@ -23400,13 +23400,13 @@
         <v>944</v>
       </c>
       <c r="B941" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="C941" t="s">
         <v>2081</v>
       </c>
       <c r="D941" t="s">
-        <v>1147</v>
+        <v>2326</v>
       </c>
       <c r="E941" t="s">
         <v>2344</v>
@@ -23672,13 +23672,13 @@
         <v>960</v>
       </c>
       <c r="B957" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="C957" t="s">
         <v>2097</v>
       </c>
       <c r="D957" t="s">
-        <v>2326</v>
+        <v>1135</v>
       </c>
       <c r="E957" t="s">
         <v>2344</v>
@@ -23879,7 +23879,7 @@
         <v>1135</v>
       </c>
       <c r="C969" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="D969" t="s">
         <v>1135</v>
@@ -23896,7 +23896,7 @@
         <v>1135</v>
       </c>
       <c r="C970" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="D970" t="s">
         <v>1135</v>
@@ -24151,7 +24151,7 @@
         <v>1143</v>
       </c>
       <c r="C985" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="D985" t="s">
         <v>2328</v>

--- a/pali-class/vocab/vocab-class23.xlsx
+++ b/pali-class/vocab/vocab-class23.xlsx
@@ -853,51 +853,51 @@
     <t>kira 1</t>
   </si>
   <si>
+    <t>avidūre</t>
+  </si>
+  <si>
+    <t>antamaso 1</t>
+  </si>
+  <si>
+    <t>sukhaṃ</t>
+  </si>
+  <si>
+    <t>ṭhānaso 1</t>
+  </si>
+  <si>
+    <t>uddhaṃ 1</t>
+  </si>
+  <si>
+    <t>sammā 2</t>
+  </si>
+  <si>
+    <t>sammā 1</t>
+  </si>
+  <si>
+    <t>eva 1</t>
+  </si>
+  <si>
+    <t>vitthārena 1</t>
+  </si>
+  <si>
+    <t>vata 1.2</t>
+  </si>
+  <si>
+    <t>yathā 1</t>
+  </si>
+  <si>
+    <t>ubhato</t>
+  </si>
+  <si>
+    <t>sādhu 3</t>
+  </si>
+  <si>
+    <t>dūrato</t>
+  </si>
+  <si>
     <t>dukkhaṃ</t>
   </si>
   <si>
-    <t>avidūre</t>
-  </si>
-  <si>
-    <t>antamaso 1</t>
-  </si>
-  <si>
-    <t>sukhaṃ</t>
-  </si>
-  <si>
-    <t>ṭhānaso 1</t>
-  </si>
-  <si>
-    <t>uddhaṃ 1</t>
-  </si>
-  <si>
-    <t>sammā 2</t>
-  </si>
-  <si>
-    <t>sammā 1</t>
-  </si>
-  <si>
-    <t>eva 1</t>
-  </si>
-  <si>
-    <t>vitthārena 1</t>
-  </si>
-  <si>
-    <t>vata 1.2</t>
-  </si>
-  <si>
-    <t>yathā 1</t>
-  </si>
-  <si>
-    <t>ubhato</t>
-  </si>
-  <si>
-    <t>sādhu 3</t>
-  </si>
-  <si>
-    <t>dūrato</t>
-  </si>
-  <si>
     <t>atha 1</t>
   </si>
   <si>
@@ -3067,153 +3067,153 @@
     <t>mukha 3</t>
   </si>
   <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>āsana 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>ṭhāna 02</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>nagara 1</t>
+  </si>
+  <si>
+    <t>padhāna 1</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
+    <t>pācittiya 1</t>
+  </si>
+  <si>
+    <t>ghara 1</t>
+  </si>
+  <si>
+    <t>dassana 3</t>
+  </si>
+  <si>
+    <t>raṭṭha</t>
+  </si>
+  <si>
+    <t>bhadra 3</t>
+  </si>
+  <si>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>kusala 4</t>
+  </si>
+  <si>
+    <t>pāpa 3</t>
+  </si>
+  <si>
+    <t>vera</t>
+  </si>
+  <si>
+    <t>amata 1</t>
+  </si>
+  <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>dhana 1</t>
+  </si>
+  <si>
+    <t>cīvara</t>
+  </si>
+  <si>
+    <t>tīra</t>
+  </si>
+  <si>
+    <t>santhata 1</t>
+  </si>
+  <si>
+    <t>nissaraṇa</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>jīva 2</t>
+  </si>
+  <si>
+    <t>vassa 3</t>
+  </si>
+  <si>
+    <t>ottappa</t>
+  </si>
+  <si>
+    <t>veyyākaraṇa 1</t>
+  </si>
+  <si>
+    <t>mūla 1</t>
+  </si>
+  <si>
+    <t>jīvita 2</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>sacca 2</t>
+  </si>
+  <si>
+    <t>khetta 1</t>
+  </si>
+  <si>
+    <t>aṅga 3</t>
+  </si>
+  <si>
+    <t>cakka 1</t>
+  </si>
+  <si>
+    <t>nāma 4</t>
+  </si>
+  <si>
+    <t>parinibbāna 1</t>
+  </si>
+  <si>
     <t>nibbāna 2</t>
   </si>
   <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>āsana 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>ṭhāna 02</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>nagara 1</t>
-  </si>
-  <si>
-    <t>padhāna 1</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>pācittiya 1</t>
-  </si>
-  <si>
-    <t>ghara 1</t>
-  </si>
-  <si>
-    <t>dassana 3</t>
-  </si>
-  <si>
-    <t>raṭṭha</t>
-  </si>
-  <si>
-    <t>bhadra 3</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>kusala 4</t>
-  </si>
-  <si>
-    <t>pāpa 3</t>
-  </si>
-  <si>
-    <t>vera</t>
-  </si>
-  <si>
-    <t>amata 1</t>
-  </si>
-  <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>dhana 1</t>
-  </si>
-  <si>
-    <t>cīvara</t>
-  </si>
-  <si>
-    <t>tīra</t>
-  </si>
-  <si>
-    <t>santhata 1</t>
-  </si>
-  <si>
-    <t>nissaraṇa</t>
-  </si>
-  <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>jīva 2</t>
-  </si>
-  <si>
-    <t>vassa 3</t>
-  </si>
-  <si>
-    <t>ottappa</t>
-  </si>
-  <si>
-    <t>veyyākaraṇa 1</t>
-  </si>
-  <si>
-    <t>mūla 1</t>
-  </si>
-  <si>
-    <t>jīvita 2</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>sacca 2</t>
-  </si>
-  <si>
-    <t>khetta 1</t>
-  </si>
-  <si>
-    <t>aṅga 3</t>
-  </si>
-  <si>
-    <t>cakka 1</t>
-  </si>
-  <si>
-    <t>nāma 4</t>
-  </si>
-  <si>
-    <t>parinibbāna 1</t>
-  </si>
-  <si>
     <t>bhaya 3</t>
   </si>
   <si>
@@ -4291,51 +4291,51 @@
     <t>really; truly; definitely</t>
   </si>
   <si>
+    <t>near (to); not far (from)</t>
+  </si>
+  <si>
+    <t>even so much as; even with; even down to; with as little as</t>
+  </si>
+  <si>
+    <t>easily; comfortably; pleasantly; happily</t>
+  </si>
+  <si>
+    <t>on the spot; right there; immediately; lit. from the place</t>
+  </si>
+  <si>
+    <t>above; up; on top</t>
+  </si>
+  <si>
+    <t>perfectly; rightly; correctly; properly</t>
+  </si>
+  <si>
+    <t>completely; thoroughly; fully; totally</t>
+  </si>
+  <si>
+    <t>only; just; merely; exclusively</t>
+  </si>
+  <si>
+    <t>in detail; in full; thoroughly</t>
+  </si>
+  <si>
+    <t>certainly; surely; indeed</t>
+  </si>
+  <si>
+    <t>like; as; as per; according to; how; in whatever way</t>
+  </si>
+  <si>
+    <t>both; on both sides (of); in both ways; dually; lit. from both</t>
+  </si>
+  <si>
+    <t>it is good (for); it would be good (if)</t>
+  </si>
+  <si>
+    <t>from far away; from afar</t>
+  </si>
+  <si>
     <t>badly; with difficulty; uncomfortably</t>
   </si>
   <si>
-    <t>near (to); not far (from)</t>
-  </si>
-  <si>
-    <t>even so much as; even with; even down to; with as little as</t>
-  </si>
-  <si>
-    <t>easily; comfortably; pleasantly; happily</t>
-  </si>
-  <si>
-    <t>on the spot; right there; immediately; lit. from the place</t>
-  </si>
-  <si>
-    <t>above; up; on top</t>
-  </si>
-  <si>
-    <t>perfectly; rightly; correctly; properly</t>
-  </si>
-  <si>
-    <t>completely; thoroughly; fully; totally</t>
-  </si>
-  <si>
-    <t>only; just; merely; exclusively</t>
-  </si>
-  <si>
-    <t>in detail; in full; thoroughly</t>
-  </si>
-  <si>
-    <t>certainly; surely; indeed</t>
-  </si>
-  <si>
-    <t>like; as; as per; according to; how; in whatever way</t>
-  </si>
-  <si>
-    <t>both; on both sides (of); in both ways; dually; lit. from both</t>
-  </si>
-  <si>
-    <t>it is good (for); it would be good (if)</t>
-  </si>
-  <si>
-    <t>from far away; from afar</t>
-  </si>
-  <si>
     <t>then; also; and so; after that</t>
   </si>
   <si>
@@ -6484,151 +6484,151 @@
     <t>face</t>
   </si>
   <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>seat; chair; lit. sitting</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>reason; grounds; basis; cause; lit. standing</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; cause; reason; lit. tying down</t>
+  </si>
+  <si>
+    <t>town; city</t>
+  </si>
+  <si>
+    <t>making effort; exerting; striving; trying (to)</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
+  </si>
+  <si>
+    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
+  </si>
+  <si>
+    <t>(vinaya) offence requiring confession</t>
+  </si>
+  <si>
+    <t>house; home; household</t>
+  </si>
+  <si>
+    <t>insight; realization; spiritual vision; lit. seeing</t>
+  </si>
+  <si>
+    <t>country; land; kingdom; realm</t>
+  </si>
+  <si>
+    <t>good fortune; good luck</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>good; benefit; merit; good deed; doing good</t>
+  </si>
+  <si>
+    <t>evil action (in); crime (in); sin (in); wrongdoing (in); misdeed (in)</t>
+  </si>
+  <si>
+    <t>hatred; ill-will; animosity; hostility</t>
+  </si>
+  <si>
+    <t>deathless state; immortality; ambrosia; drink of immortality; epithet of Nibbāna</t>
+  </si>
+  <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>wealth; riches; treasure</t>
+  </si>
+  <si>
+    <t>robe; cloth; robe-cloth; lit. rags</t>
+  </si>
+  <si>
+    <t>shore; riverbank; beach</t>
+  </si>
+  <si>
+    <t>spread; bedspread; coverlet; counterpane</t>
+  </si>
+  <si>
+    <t>escape (from); exit (from); exodus (from); way out (of); lit. going out</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>dwelling; building; house; hut</t>
+  </si>
+  <si>
+    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
+  </si>
+  <si>
+    <t>death; dying</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>regret; shame in wrongdoing; respect for others</t>
+  </si>
+  <si>
+    <t>answer; reply</t>
+  </si>
+  <si>
+    <t>(of a tree) root; base; foot</t>
+  </si>
+  <si>
+    <t>livelihood; lifestyle; way of life</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>field; plot of land</t>
+  </si>
+  <si>
+    <t>factor; component; element; quality; aspect; lit. part</t>
+  </si>
+  <si>
+    <t>wheel</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
+  </si>
+  <si>
     <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>seat; chair; lit. sitting</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>reason; grounds; basis; cause; lit. standing</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; cause; reason; lit. tying down</t>
-  </si>
-  <si>
-    <t>town; city</t>
-  </si>
-  <si>
-    <t>making effort; exerting; striving; trying (to)</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
-  </si>
-  <si>
-    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
-  </si>
-  <si>
-    <t>(vinaya) offence requiring confession</t>
-  </si>
-  <si>
-    <t>house; home; household</t>
-  </si>
-  <si>
-    <t>insight; realization; spiritual vision; lit. seeing</t>
-  </si>
-  <si>
-    <t>country; land; kingdom; realm</t>
-  </si>
-  <si>
-    <t>good fortune; good luck</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>good; benefit; merit; good deed; doing good</t>
-  </si>
-  <si>
-    <t>evil action (in); crime (in); sin (in); wrongdoing (in); misdeed (in)</t>
-  </si>
-  <si>
-    <t>hatred; ill-will; animosity; hostility</t>
-  </si>
-  <si>
-    <t>deathless state; immortality; ambrosia; drink of immortality; epithet of Nibbāna</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>wealth; riches; treasure</t>
-  </si>
-  <si>
-    <t>robe; cloth; robe-cloth; lit. rags</t>
-  </si>
-  <si>
-    <t>shore; riverbank; beach</t>
-  </si>
-  <si>
-    <t>spread; bedspread; coverlet; counterpane</t>
-  </si>
-  <si>
-    <t>escape (from); exit (from); exodus (from); way out (of); lit. going out</t>
-  </si>
-  <si>
-    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>dwelling; building; house; hut</t>
-  </si>
-  <si>
-    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
-  </si>
-  <si>
-    <t>death; dying</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>regret; shame in wrongdoing; respect for others</t>
-  </si>
-  <si>
-    <t>answer; reply</t>
-  </si>
-  <si>
-    <t>(of a tree) root; base; foot</t>
-  </si>
-  <si>
-    <t>livelihood; lifestyle; way of life</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>field; plot of land</t>
-  </si>
-  <si>
-    <t>factor; component; element; quality; aspect; lit. part</t>
-  </si>
-  <si>
-    <t>wheel</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
   </si>
   <si>
     <t>danger (of; from); peril (of; from)</t>
@@ -26601,7 +26601,7 @@
         <v>1151</v>
       </c>
       <c r="C1127" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="D1127" t="s">
         <v>2343</v>

--- a/pali-class/vocab/vocab-class23.xlsx
+++ b/pali-class/vocab/vocab-class23.xlsx
@@ -610,12 +610,12 @@
     <t>aneka</t>
   </si>
   <si>
+    <t>aniccato</t>
+  </si>
+  <si>
     <t>attato</t>
   </si>
   <si>
-    <t>aniccato</t>
-  </si>
-  <si>
     <t>anattato</t>
   </si>
   <si>
@@ -928,33 +928,33 @@
     <t>bhāvita 1</t>
   </si>
   <si>
+    <t>vacanīya 2</t>
+  </si>
+  <si>
+    <t>pahātabba</t>
+  </si>
+  <si>
+    <t>veditabba 1</t>
+  </si>
+  <si>
+    <t>daṭṭhabba 1</t>
+  </si>
+  <si>
+    <t>sikkhitabba</t>
+  </si>
+  <si>
+    <t>bhāvetabba</t>
+  </si>
+  <si>
+    <t>sevitabba 2</t>
+  </si>
+  <si>
+    <t>karaṇīya 2</t>
+  </si>
+  <si>
     <t>kātabba 2</t>
   </si>
   <si>
-    <t>vacanīya 2</t>
-  </si>
-  <si>
-    <t>pahātabba</t>
-  </si>
-  <si>
-    <t>veditabba 1</t>
-  </si>
-  <si>
-    <t>daṭṭhabba 1</t>
-  </si>
-  <si>
-    <t>sikkhitabba</t>
-  </si>
-  <si>
-    <t>bhāvetabba</t>
-  </si>
-  <si>
-    <t>sevitabba 2</t>
-  </si>
-  <si>
-    <t>karaṇīya 2</t>
-  </si>
-  <si>
     <t>kāretabba 1</t>
   </si>
   <si>
@@ -2155,39 +2155,39 @@
     <t>gahapati</t>
   </si>
   <si>
+    <t>muni 1</t>
+  </si>
+  <si>
+    <t>aggi</t>
+  </si>
+  <si>
+    <t>pāṇi 1</t>
+  </si>
+  <si>
+    <t>sārathi 2</t>
+  </si>
+  <si>
+    <t>kucchi 1</t>
+  </si>
+  <si>
+    <t>isi</t>
+  </si>
+  <si>
+    <t>licchavi</t>
+  </si>
+  <si>
+    <t>gāmaṇi</t>
+  </si>
+  <si>
+    <t>ñāti</t>
+  </si>
+  <si>
+    <t>byādhi</t>
+  </si>
+  <si>
     <t>sāli</t>
   </si>
   <si>
-    <t>muni 1</t>
-  </si>
-  <si>
-    <t>aggi</t>
-  </si>
-  <si>
-    <t>pāṇi 1</t>
-  </si>
-  <si>
-    <t>sārathi 2</t>
-  </si>
-  <si>
-    <t>kucchi 1</t>
-  </si>
-  <si>
-    <t>isi</t>
-  </si>
-  <si>
-    <t>licchavi</t>
-  </si>
-  <si>
-    <t>gāmaṇi</t>
-  </si>
-  <si>
-    <t>ñāti</t>
-  </si>
-  <si>
-    <t>byādhi</t>
-  </si>
-  <si>
     <t>karoti 2</t>
   </si>
   <si>
@@ -3853,7 +3853,7 @@
     <t>dark; black</t>
   </si>
   <si>
-    <t>brownish; colour of Buddhist monks’ robes</t>
+    <t>brownish; colour of Buddhist monks' robes</t>
   </si>
   <si>
     <t>fit (for); capable (of); suitable (for)</t>
@@ -4051,12 +4051,12 @@
     <t>many; various; countless; lit. not one</t>
   </si>
   <si>
+    <t>as impermanent; as unstable; as transient; as unreliable</t>
+  </si>
+  <si>
     <t>as oneself; as self</t>
   </si>
   <si>
-    <t>as impermanent; as unstable; as transient; as unreliable</t>
-  </si>
-  <si>
     <t>as impersonal; as not oneself; as non-subjective</t>
   </si>
   <si>
@@ -4252,7 +4252,7 @@
     <t>internally; inwardly; personally</t>
   </si>
   <si>
-    <t>by one’s own; oneself; one’s own</t>
+    <t>by one's own; oneself; one's own</t>
   </si>
   <si>
     <t>so; thus; in such a way; likewise; similarly</t>
@@ -4366,33 +4366,33 @@
     <t>cultivated; developed; lit. caused to be</t>
   </si>
   <si>
+    <t>should be spoken (to); should be told (to); should be said (to); lit. to be said</t>
+  </si>
+  <si>
+    <t>should be given up (by); should be abandoned (by); lit. to be abandoned</t>
+  </si>
+  <si>
+    <t>can be known (by); should be understood (by); lit. to be known</t>
+  </si>
+  <si>
+    <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
+  </si>
+  <si>
+    <t>should be learned (by); should be practised (by); should be trained (by); lit. to be trained</t>
+  </si>
+  <si>
+    <t>should be cultivated; should be developed; lit. to be caused to be</t>
+  </si>
+  <si>
+    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
+  </si>
+  <si>
+    <t>should be done; must be done; ought to be made; to be observed; lit. to be done</t>
+  </si>
+  <si>
     <t>should be made; lit. to be done</t>
   </si>
   <si>
-    <t>should be spoken (to); should be told (to); should be said (to); lit. to be said</t>
-  </si>
-  <si>
-    <t>should be given up (by); should be abandoned (by); lit. to be abandoned</t>
-  </si>
-  <si>
-    <t>can be known (by); should be understood (by); lit. to be known</t>
-  </si>
-  <si>
-    <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
-  </si>
-  <si>
-    <t>should be learned (by); should be practised (by); should be trained (by); lit. to be trained</t>
-  </si>
-  <si>
-    <t>should be cultivated; should be developed; lit. to be caused to be</t>
-  </si>
-  <si>
-    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
-  </si>
-  <si>
-    <t>should be done; must be done; ought to be made; to be observed; lit. to be done</t>
-  </si>
-  <si>
     <t>should be made; should be done; should be built; lit. to be caused to do</t>
   </si>
   <si>
@@ -5584,39 +5584,39 @@
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
+    <t>monk; sage; seer; hermit; silent sage</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>hand; palm</t>
+  </si>
+  <si>
+    <t>(horse or elephant) trainer</t>
+  </si>
+  <si>
+    <t>stomach; belly</t>
+  </si>
+  <si>
+    <t>seer; sage</t>
+  </si>
+  <si>
+    <t>name of a prominent group of Khattiyas based in Vesālī</t>
+  </si>
+  <si>
+    <t>chief; chieftain; headman; leader</t>
+  </si>
+  <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
+    <t>sickness; disease; illness; lit. upset</t>
+  </si>
+  <si>
     <t>fine rice</t>
   </si>
   <si>
-    <t>monk; sage; seer; hermit; silent sage</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
-    <t>hand; palm</t>
-  </si>
-  <si>
-    <t>(horse or elephant) trainer</t>
-  </si>
-  <si>
-    <t>stomach; belly</t>
-  </si>
-  <si>
-    <t>seer; sage</t>
-  </si>
-  <si>
-    <t>name of a prominent group of Khattiyas based in Vesālī</t>
-  </si>
-  <si>
-    <t>chief; chieftain; headman; leader</t>
-  </si>
-  <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
-    <t>sickness; disease; illness; lit. upset</t>
-  </si>
-  <si>
     <t>makes</t>
   </si>
   <si>
@@ -5734,10 +5734,10 @@
     <t>with; together (with); accompanied (by)</t>
   </si>
   <si>
-    <t>surely?; didn’t?; isn't it?; definitely</t>
-  </si>
-  <si>
-    <t>do not; may one not; don’t let</t>
+    <t>surely?; didn't?; isn't it?; definitely</t>
+  </si>
+  <si>
+    <t>do not; may one not; don't let</t>
   </si>
   <si>
     <t>no; not; neither; nor</t>
@@ -6283,7 +6283,7 @@
     <t>psychic power; supernormal ability</t>
   </si>
   <si>
-    <t>hut; monk’s dwelling</t>
+    <t>hut; monk's dwelling</t>
   </si>
   <si>
     <t>outer robe; double robe; patchwork robe; lit. joined together</t>
@@ -6760,10 +6760,10 @@
     <t>too; also; as well</t>
   </si>
   <si>
-    <t>could it be?; what if?; shall?; let’s?; perhaps?</t>
-  </si>
-  <si>
-    <t>(adds a question mark) surely?; didn’t?; wouldn't?; which?</t>
+    <t>could it be?; what if?; shall?; let's?; perhaps?</t>
+  </si>
+  <si>
+    <t>(adds a question mark) surely?; didn't?; wouldn't?; which?</t>
   </si>
   <si>
     <t>just; only</t>
@@ -6793,7 +6793,7 @@
     <t>how?</t>
   </si>
   <si>
-    <t>that’s enough (of)!; stop (with)!</t>
+    <t>that's enough (of)!; stop (with)!</t>
   </si>
   <si>
     <t>enough; it is enough (for)</t>
